--- a/conception/doc/DICTIONNAIRE_AFRIMETA.xlsx
+++ b/conception/doc/DICTIONNAIRE_AFRIMETA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esprit/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esprit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1760B1DF-E8C4-8746-89BD-6FFB49AB7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581ECB4-47F8-2048-8877-277F16D9F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CC5C60A9-0C08-E84C-B480-C7D6706A7625}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{CC5C60A9-0C08-E84C-B480-C7D6706A7625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="80">
   <si>
     <t>Prenom</t>
   </si>
@@ -137,18 +137,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>IdAdresse</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Cp</t>
-  </si>
-  <si>
-    <t>IdVille</t>
-  </si>
-  <si>
     <t>IdProduit</t>
   </si>
   <si>
@@ -243,6 +231,45 @@
   </si>
   <si>
     <t>totalTva</t>
+  </si>
+  <si>
+    <t>profile_id</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>numero_telephone</t>
+  </si>
+  <si>
+    <t>date_naissance</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>addresse</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>code_postal</t>
+  </si>
+  <si>
+    <t>pays</t>
+  </si>
+  <si>
+    <t>profile_picture_url</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
   </si>
 </sst>
 </file>
@@ -302,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -430,11 +457,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,25 +488,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,6 +521,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FAEF8F9-39AB-ED44-990D-076C4B3B4626}" name="Table1" displayName="Table1" ref="C3:J66" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="C3:J66" xr:uid="{54D8D772-57A6-0F4E-8E04-BB272E39431F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FAEF8F9-39AB-ED44-990D-076C4B3B4626}" name="Table1" displayName="Table1" ref="C3:J74" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="C3:J74" xr:uid="{54D8D772-57A6-0F4E-8E04-BB272E39431F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{46A7D612-3EE0-814F-8456-61CECD7E9565}" name="Nom" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{6068D691-C792-AF43-96A1-B7DB20F5001B}" name="Format" dataDxfId="6"/>
@@ -1146,69 +1183,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4112E54A-510F-3F4F-88C8-F3076ADA36DA}">
-  <dimension ref="B3:L609"/>
+  <dimension ref="B3:L602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="21" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
-        <v>53</v>
+      <c r="C5" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1367,8 +1404,8 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
-        <v>52</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1405,7 +1442,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1463,7 +1500,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1505,8 +1542,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1524,11 +1561,11 @@
       <c r="J20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="10" t="s">
         <v>33</v>
       </c>
@@ -1547,11 +1584,11 @@
       <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
@@ -1570,11 +1607,11 @@
       <c r="J22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
@@ -1593,15 +1630,17 @@
       <c r="J23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
         <v>7</v>
@@ -1614,13 +1653,13 @@
       <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="10" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>9</v>
@@ -1637,16 +1676,16 @@
       <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
         <v>50</v>
@@ -1660,11 +1699,11 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="10" t="s">
         <v>37</v>
       </c>
@@ -1683,16 +1722,16 @@
       <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E28" s="5">
         <v>50</v>
@@ -1702,22 +1741,20 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I28" s="6"/>
       <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="10" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29" s="5">
         <v>50</v>
@@ -1731,62 +1768,62 @@
       <c r="J29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="14" t="s">
-        <v>39</v>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E30" s="5">
+        <v>50</v>
+      </c>
       <c r="F30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="10" t="s">
-        <v>40</v>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="5">
-        <v>50</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5">
         <v>50</v>
@@ -1800,16 +1837,16 @@
       <c r="J32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5">
         <v>50</v>
@@ -1823,16 +1860,16 @@
       <c r="J33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5">
         <v>50</v>
@@ -1846,39 +1883,39 @@
       <c r="J34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="10" t="s">
-        <v>43</v>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5">
-        <v>50</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5">
         <v>50</v>
@@ -1892,17 +1929,15 @@
       <c r="J36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
         <v>7</v>
@@ -1915,16 +1950,16 @@
       <c r="J37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="10" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E38" s="5">
         <v>50</v>
@@ -1938,39 +1973,39 @@
       <c r="J38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5">
-        <v>50</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="10" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E40" s="5">
         <v>50</v>
@@ -1984,21 +2019,19 @@
       <c r="J40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="14" t="s">
-        <v>49</v>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
@@ -2007,20 +2040,18 @@
       <c r="J41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="5">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
@@ -2030,37 +2061,39 @@
       <c r="J42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
         <v>50</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I43" s="6"/>
       <c r="J43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="10" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5">
         <v>50</v>
@@ -2074,39 +2107,39 @@
       <c r="J44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="14" t="s">
-        <v>51</v>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="5">
+        <v>50</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I45" s="6"/>
       <c r="J45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E46" s="5">
         <v>50</v>
@@ -2120,13 +2153,13 @@
       <c r="J46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="14" t="s">
-        <v>54</v>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>4</v>
@@ -2141,20 +2174,20 @@
       <c r="J47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -2162,170 +2195,166 @@
       <c r="J48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="5">
-        <v>50</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="10" t="s">
-        <v>57</v>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="5">
-        <v>50</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="10" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E51" s="5">
         <v>50</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="10" t="s">
-        <v>59</v>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="5">
-        <v>50</v>
-      </c>
+      <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="14" t="s">
-        <v>61</v>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="E53" s="5">
+        <v>50</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="10" t="s">
-        <v>62</v>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="14" t="s">
-        <v>63</v>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>4</v>
@@ -2340,22 +2369,20 @@
       <c r="J56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="10" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="5">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2363,3457 +2390,3479 @@
       <c r="J57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I58" s="6"/>
       <c r="J58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="10" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="5">
-        <v>50</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="14" t="s">
-        <v>65</v>
+      <c r="B60" s="11"/>
+      <c r="C60" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I60" s="6"/>
       <c r="J60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
-      <c r="C61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="11"/>
+      <c r="C62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
-      <c r="C62" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="11"/>
+      <c r="C64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="11"/>
+      <c r="C65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
-      <c r="C65" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="12"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="12"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="12"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="12"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11"/>
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B193" s="12"/>
-      <c r="C193" s="13"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B194" s="12"/>
-      <c r="C194" s="13"/>
-      <c r="K194" s="12"/>
-      <c r="L194" s="12"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B195" s="12"/>
-      <c r="C195" s="13"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B196" s="12"/>
-      <c r="C196" s="13"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B197" s="12"/>
-      <c r="C197" s="13"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B198" s="12"/>
-      <c r="C198" s="13"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B199" s="12"/>
-      <c r="C199" s="13"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B200" s="12"/>
-      <c r="C200" s="13"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11"/>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B201" s="12"/>
-      <c r="C201" s="13"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B202" s="12"/>
-      <c r="C202" s="13"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B203" s="12"/>
-      <c r="C203" s="13"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B204" s="12"/>
-      <c r="C204" s="13"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B205" s="12"/>
-      <c r="C205" s="13"/>
-      <c r="K205" s="12"/>
-      <c r="L205" s="12"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B206" s="12"/>
-      <c r="C206" s="13"/>
-      <c r="K206" s="12"/>
-      <c r="L206" s="12"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B207" s="12"/>
-      <c r="C207" s="13"/>
-      <c r="K207" s="12"/>
-      <c r="L207" s="12"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="11"/>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B208" s="12"/>
-      <c r="C208" s="13"/>
-      <c r="K208" s="12"/>
-      <c r="L208" s="12"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B209" s="12"/>
-      <c r="C209" s="13"/>
-      <c r="K209" s="12"/>
-      <c r="L209" s="12"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B210" s="12"/>
-      <c r="C210" s="13"/>
-      <c r="K210" s="12"/>
-      <c r="L210" s="12"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B211" s="12"/>
-      <c r="C211" s="13"/>
-      <c r="K211" s="12"/>
-      <c r="L211" s="12"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B212" s="12"/>
-      <c r="C212" s="13"/>
-      <c r="K212" s="12"/>
-      <c r="L212" s="12"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B213" s="12"/>
-      <c r="C213" s="13"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B214" s="12"/>
-      <c r="C214" s="13"/>
-      <c r="K214" s="12"/>
-      <c r="L214" s="12"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B215" s="12"/>
-      <c r="C215" s="13"/>
-      <c r="K215" s="12"/>
-      <c r="L215" s="12"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B216" s="12"/>
-      <c r="C216" s="13"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B217" s="12"/>
-      <c r="C217" s="13"/>
-      <c r="K217" s="12"/>
-      <c r="L217" s="12"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B218" s="12"/>
-      <c r="C218" s="13"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B219" s="12"/>
-      <c r="C219" s="13"/>
-      <c r="K219" s="12"/>
-      <c r="L219" s="12"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B220" s="12"/>
-      <c r="C220" s="13"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B221" s="12"/>
-      <c r="C221" s="13"/>
-      <c r="K221" s="12"/>
-      <c r="L221" s="12"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B222" s="12"/>
-      <c r="C222" s="13"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B223" s="12"/>
-      <c r="C223" s="13"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B224" s="12"/>
-      <c r="C224" s="13"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
     </row>
     <row r="225" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B225" s="12"/>
-      <c r="C225" s="13"/>
-      <c r="K225" s="12"/>
-      <c r="L225" s="12"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B226" s="12"/>
-      <c r="C226" s="13"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B227" s="12"/>
-      <c r="C227" s="13"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B228" s="12"/>
-      <c r="C228" s="13"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
     </row>
     <row r="229" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B229" s="12"/>
-      <c r="C229" s="13"/>
-      <c r="K229" s="12"/>
-      <c r="L229" s="12"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B230" s="12"/>
-      <c r="C230" s="13"/>
-      <c r="K230" s="12"/>
-      <c r="L230" s="12"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B231" s="12"/>
-      <c r="C231" s="13"/>
-      <c r="K231" s="12"/>
-      <c r="L231" s="12"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B232" s="12"/>
-      <c r="C232" s="13"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B233" s="12"/>
-      <c r="C233" s="13"/>
-      <c r="K233" s="12"/>
-      <c r="L233" s="12"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B234" s="12"/>
-      <c r="C234" s="13"/>
-      <c r="K234" s="12"/>
-      <c r="L234" s="12"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
     </row>
     <row r="235" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B235" s="12"/>
-      <c r="C235" s="13"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B236" s="12"/>
-      <c r="C236" s="13"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B237" s="12"/>
-      <c r="C237" s="13"/>
-      <c r="K237" s="12"/>
-      <c r="L237" s="12"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B238" s="12"/>
-      <c r="C238" s="13"/>
-      <c r="K238" s="12"/>
-      <c r="L238" s="12"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
     </row>
     <row r="239" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B239" s="12"/>
-      <c r="C239" s="13"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B240" s="12"/>
-      <c r="C240" s="13"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
     </row>
     <row r="241" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B241" s="12"/>
-      <c r="C241" s="13"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
     </row>
     <row r="242" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B242" s="12"/>
-      <c r="C242" s="13"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
     </row>
     <row r="243" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B243" s="12"/>
-      <c r="C243" s="13"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
     </row>
     <row r="244" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B244" s="12"/>
-      <c r="C244" s="13"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="11"/>
     </row>
     <row r="245" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B245" s="12"/>
-      <c r="C245" s="13"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
     </row>
     <row r="246" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B246" s="12"/>
-      <c r="C246" s="13"/>
-      <c r="K246" s="12"/>
-      <c r="L246" s="12"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="11"/>
     </row>
     <row r="247" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B247" s="12"/>
-      <c r="C247" s="13"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="K247" s="11"/>
+      <c r="L247" s="11"/>
     </row>
     <row r="248" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B248" s="12"/>
-      <c r="C248" s="13"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
     </row>
     <row r="249" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B249" s="12"/>
-      <c r="C249" s="13"/>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="K249" s="11"/>
+      <c r="L249" s="11"/>
     </row>
     <row r="250" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B250" s="12"/>
-      <c r="C250" s="13"/>
-      <c r="K250" s="12"/>
-      <c r="L250" s="12"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="K250" s="11"/>
+      <c r="L250" s="11"/>
     </row>
     <row r="251" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B251" s="12"/>
-      <c r="C251" s="13"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="K251" s="11"/>
+      <c r="L251" s="11"/>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B252" s="12"/>
-      <c r="C252" s="13"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+      <c r="K252" s="11"/>
+      <c r="L252" s="11"/>
     </row>
     <row r="253" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B253" s="12"/>
-      <c r="C253" s="13"/>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="11"/>
     </row>
     <row r="254" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B254" s="12"/>
-      <c r="C254" s="13"/>
-      <c r="K254" s="12"/>
-      <c r="L254" s="12"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+      <c r="K254" s="11"/>
+      <c r="L254" s="11"/>
     </row>
     <row r="255" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B255" s="12"/>
-      <c r="C255" s="13"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="K255" s="11"/>
+      <c r="L255" s="11"/>
     </row>
     <row r="256" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B256" s="12"/>
-      <c r="C256" s="13"/>
-      <c r="K256" s="12"/>
-      <c r="L256" s="12"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="11"/>
     </row>
     <row r="257" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B257" s="12"/>
-      <c r="C257" s="13"/>
-      <c r="K257" s="12"/>
-      <c r="L257" s="12"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
     </row>
     <row r="258" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B258" s="12"/>
-      <c r="C258" s="13"/>
-      <c r="K258" s="12"/>
-      <c r="L258" s="12"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
     </row>
     <row r="259" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B259" s="12"/>
-      <c r="C259" s="13"/>
-      <c r="K259" s="12"/>
-      <c r="L259" s="12"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="11"/>
     </row>
     <row r="260" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B260" s="12"/>
-      <c r="C260" s="13"/>
-      <c r="K260" s="12"/>
-      <c r="L260" s="12"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="11"/>
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B261" s="12"/>
-      <c r="C261" s="13"/>
-      <c r="K261" s="12"/>
-      <c r="L261" s="12"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="11"/>
     </row>
     <row r="262" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B262" s="12"/>
-      <c r="C262" s="13"/>
-      <c r="K262" s="12"/>
-      <c r="L262" s="12"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
     </row>
     <row r="263" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B263" s="12"/>
-      <c r="C263" s="13"/>
-      <c r="K263" s="12"/>
-      <c r="L263" s="12"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B264" s="12"/>
-      <c r="C264" s="13"/>
-      <c r="K264" s="12"/>
-      <c r="L264" s="12"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
     </row>
     <row r="265" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B265" s="12"/>
-      <c r="C265" s="13"/>
-      <c r="K265" s="12"/>
-      <c r="L265" s="12"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
     </row>
     <row r="266" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B266" s="12"/>
-      <c r="C266" s="13"/>
-      <c r="K266" s="12"/>
-      <c r="L266" s="12"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
     </row>
     <row r="267" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B267" s="12"/>
-      <c r="C267" s="13"/>
-      <c r="K267" s="12"/>
-      <c r="L267" s="12"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B268" s="12"/>
-      <c r="C268" s="13"/>
-      <c r="K268" s="12"/>
-      <c r="L268" s="12"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
     </row>
     <row r="269" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B269" s="12"/>
-      <c r="C269" s="13"/>
-      <c r="K269" s="12"/>
-      <c r="L269" s="12"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
     </row>
     <row r="270" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B270" s="12"/>
-      <c r="C270" s="13"/>
-      <c r="K270" s="12"/>
-      <c r="L270" s="12"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
     </row>
     <row r="271" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B271" s="12"/>
-      <c r="C271" s="13"/>
-      <c r="K271" s="12"/>
-      <c r="L271" s="12"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B272" s="12"/>
-      <c r="C272" s="13"/>
-      <c r="K272" s="12"/>
-      <c r="L272" s="12"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
     </row>
     <row r="273" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B273" s="12"/>
-      <c r="C273" s="13"/>
-      <c r="K273" s="12"/>
-      <c r="L273" s="12"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
     </row>
     <row r="274" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B274" s="12"/>
-      <c r="C274" s="13"/>
-      <c r="K274" s="12"/>
-      <c r="L274" s="12"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
     </row>
     <row r="275" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B275" s="12"/>
-      <c r="C275" s="13"/>
-      <c r="K275" s="12"/>
-      <c r="L275" s="12"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B276" s="12"/>
-      <c r="C276" s="13"/>
-      <c r="K276" s="12"/>
-      <c r="L276" s="12"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
     </row>
     <row r="277" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B277" s="12"/>
-      <c r="C277" s="13"/>
-      <c r="K277" s="12"/>
-      <c r="L277" s="12"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
     </row>
     <row r="278" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B278" s="12"/>
-      <c r="C278" s="13"/>
-      <c r="K278" s="12"/>
-      <c r="L278" s="12"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="11"/>
     </row>
     <row r="279" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B279" s="12"/>
-      <c r="C279" s="13"/>
-      <c r="K279" s="12"/>
-      <c r="L279" s="12"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
     </row>
     <row r="280" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B280" s="12"/>
-      <c r="C280" s="13"/>
-      <c r="K280" s="12"/>
-      <c r="L280" s="12"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
     </row>
     <row r="281" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B281" s="12"/>
-      <c r="C281" s="13"/>
-      <c r="K281" s="12"/>
-      <c r="L281" s="12"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
     </row>
     <row r="282" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B282" s="12"/>
-      <c r="C282" s="13"/>
-      <c r="K282" s="12"/>
-      <c r="L282" s="12"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
     </row>
     <row r="283" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B283" s="12"/>
-      <c r="C283" s="13"/>
-      <c r="K283" s="12"/>
-      <c r="L283" s="12"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="11"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
     </row>
     <row r="284" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B284" s="12"/>
-      <c r="C284" s="13"/>
-      <c r="K284" s="12"/>
-      <c r="L284" s="12"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
     </row>
     <row r="285" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B285" s="12"/>
-      <c r="C285" s="13"/>
-      <c r="K285" s="12"/>
-      <c r="L285" s="12"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
     </row>
     <row r="286" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B286" s="12"/>
-      <c r="C286" s="13"/>
-      <c r="K286" s="12"/>
-      <c r="L286" s="12"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
     </row>
     <row r="287" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B287" s="12"/>
-      <c r="C287" s="13"/>
-      <c r="K287" s="12"/>
-      <c r="L287" s="12"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
     </row>
     <row r="288" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B288" s="12"/>
-      <c r="C288" s="13"/>
-      <c r="K288" s="12"/>
-      <c r="L288" s="12"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
     </row>
     <row r="289" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B289" s="12"/>
-      <c r="C289" s="13"/>
-      <c r="K289" s="12"/>
-      <c r="L289" s="12"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="11"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="11"/>
     </row>
     <row r="290" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B290" s="12"/>
-      <c r="C290" s="13"/>
-      <c r="K290" s="12"/>
-      <c r="L290" s="12"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
     </row>
     <row r="291" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B291" s="12"/>
-      <c r="C291" s="13"/>
-      <c r="K291" s="12"/>
-      <c r="L291" s="12"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
     </row>
     <row r="292" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B292" s="12"/>
-      <c r="C292" s="13"/>
-      <c r="K292" s="12"/>
-      <c r="L292" s="12"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11"/>
     </row>
     <row r="293" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B293" s="12"/>
-      <c r="C293" s="13"/>
-      <c r="K293" s="12"/>
-      <c r="L293" s="12"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B294" s="12"/>
-      <c r="C294" s="13"/>
-      <c r="K294" s="12"/>
-      <c r="L294" s="12"/>
+      <c r="B294" s="11"/>
+      <c r="C294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
     </row>
     <row r="295" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B295" s="12"/>
-      <c r="C295" s="13"/>
-      <c r="K295" s="12"/>
-      <c r="L295" s="12"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="11"/>
     </row>
     <row r="296" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B296" s="12"/>
-      <c r="C296" s="13"/>
-      <c r="K296" s="12"/>
-      <c r="L296" s="12"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
+      <c r="K296" s="11"/>
+      <c r="L296" s="11"/>
     </row>
     <row r="297" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B297" s="12"/>
-      <c r="C297" s="13"/>
-      <c r="K297" s="12"/>
-      <c r="L297" s="12"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="11"/>
     </row>
     <row r="298" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B298" s="12"/>
-      <c r="C298" s="13"/>
-      <c r="K298" s="12"/>
-      <c r="L298" s="12"/>
+      <c r="B298" s="11"/>
+      <c r="C298" s="11"/>
+      <c r="K298" s="11"/>
+      <c r="L298" s="11"/>
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B299" s="12"/>
-      <c r="C299" s="13"/>
-      <c r="K299" s="12"/>
-      <c r="L299" s="12"/>
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="11"/>
     </row>
     <row r="300" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B300" s="12"/>
-      <c r="C300" s="13"/>
-      <c r="K300" s="12"/>
-      <c r="L300" s="12"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B301" s="12"/>
-      <c r="C301" s="13"/>
-      <c r="K301" s="12"/>
-      <c r="L301" s="12"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
     </row>
     <row r="302" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B302" s="12"/>
-      <c r="C302" s="13"/>
-      <c r="K302" s="12"/>
-      <c r="L302" s="12"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="L302" s="11"/>
     </row>
     <row r="303" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B303" s="12"/>
-      <c r="C303" s="13"/>
-      <c r="K303" s="12"/>
-      <c r="L303" s="12"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="11"/>
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B304" s="12"/>
-      <c r="C304" s="13"/>
-      <c r="K304" s="12"/>
-      <c r="L304" s="12"/>
+      <c r="B304" s="11"/>
+      <c r="C304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="11"/>
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B305" s="12"/>
-      <c r="C305" s="13"/>
-      <c r="K305" s="12"/>
-      <c r="L305" s="12"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="11"/>
     </row>
     <row r="306" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B306" s="12"/>
-      <c r="C306" s="13"/>
-      <c r="K306" s="12"/>
-      <c r="L306" s="12"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="K306" s="11"/>
+      <c r="L306" s="11"/>
     </row>
     <row r="307" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B307" s="12"/>
-      <c r="C307" s="13"/>
-      <c r="K307" s="12"/>
-      <c r="L307" s="12"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="K307" s="11"/>
+      <c r="L307" s="11"/>
     </row>
     <row r="308" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B308" s="12"/>
-      <c r="C308" s="13"/>
-      <c r="K308" s="12"/>
-      <c r="L308" s="12"/>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
+      <c r="K308" s="11"/>
+      <c r="L308" s="11"/>
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B309" s="12"/>
-      <c r="C309" s="13"/>
-      <c r="K309" s="12"/>
-      <c r="L309" s="12"/>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="11"/>
     </row>
     <row r="310" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B310" s="12"/>
-      <c r="C310" s="13"/>
-      <c r="K310" s="12"/>
-      <c r="L310" s="12"/>
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
+      <c r="K310" s="11"/>
+      <c r="L310" s="11"/>
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B311" s="12"/>
-      <c r="C311" s="13"/>
-      <c r="K311" s="12"/>
-      <c r="L311" s="12"/>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="K311" s="11"/>
+      <c r="L311" s="11"/>
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B312" s="12"/>
-      <c r="C312" s="13"/>
-      <c r="K312" s="12"/>
-      <c r="L312" s="12"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+      <c r="K312" s="11"/>
+      <c r="L312" s="11"/>
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B313" s="12"/>
-      <c r="C313" s="13"/>
-      <c r="K313" s="12"/>
-      <c r="L313" s="12"/>
+      <c r="B313" s="11"/>
+      <c r="C313" s="11"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="11"/>
     </row>
     <row r="314" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B314" s="12"/>
-      <c r="C314" s="13"/>
-      <c r="K314" s="12"/>
-      <c r="L314" s="12"/>
+      <c r="B314" s="11"/>
+      <c r="C314" s="11"/>
+      <c r="K314" s="11"/>
+      <c r="L314" s="11"/>
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B315" s="12"/>
-      <c r="C315" s="13"/>
-      <c r="K315" s="12"/>
-      <c r="L315" s="12"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
+      <c r="K315" s="11"/>
+      <c r="L315" s="11"/>
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B316" s="12"/>
-      <c r="C316" s="13"/>
-      <c r="K316" s="12"/>
-      <c r="L316" s="12"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="11"/>
     </row>
     <row r="317" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B317" s="12"/>
-      <c r="C317" s="13"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="12"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="11"/>
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B318" s="12"/>
-      <c r="C318" s="13"/>
-      <c r="K318" s="12"/>
-      <c r="L318" s="12"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+      <c r="K318" s="11"/>
+      <c r="L318" s="11"/>
     </row>
     <row r="319" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B319" s="12"/>
-      <c r="C319" s="13"/>
-      <c r="K319" s="12"/>
-      <c r="L319" s="12"/>
+      <c r="B319" s="11"/>
+      <c r="C319" s="11"/>
+      <c r="K319" s="11"/>
+      <c r="L319" s="11"/>
     </row>
     <row r="320" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B320" s="12"/>
-      <c r="C320" s="13"/>
-      <c r="K320" s="12"/>
-      <c r="L320" s="12"/>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
+      <c r="K320" s="11"/>
+      <c r="L320" s="11"/>
     </row>
     <row r="321" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B321" s="12"/>
-      <c r="C321" s="13"/>
-      <c r="K321" s="12"/>
-      <c r="L321" s="12"/>
+      <c r="B321" s="11"/>
+      <c r="C321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="11"/>
     </row>
     <row r="322" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B322" s="12"/>
-      <c r="C322" s="13"/>
-      <c r="K322" s="12"/>
-      <c r="L322" s="12"/>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11"/>
     </row>
     <row r="323" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B323" s="12"/>
-      <c r="C323" s="13"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
+      <c r="B323" s="11"/>
+      <c r="C323" s="11"/>
+      <c r="K323" s="11"/>
+      <c r="L323" s="11"/>
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B324" s="12"/>
-      <c r="C324" s="13"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B325" s="12"/>
-      <c r="C325" s="13"/>
-      <c r="K325" s="12"/>
-      <c r="L325" s="12"/>
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11"/>
     </row>
     <row r="326" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B326" s="12"/>
-      <c r="C326" s="13"/>
-      <c r="K326" s="12"/>
-      <c r="L326" s="12"/>
+      <c r="B326" s="11"/>
+      <c r="C326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B327" s="12"/>
-      <c r="C327" s="13"/>
-      <c r="K327" s="12"/>
-      <c r="L327" s="12"/>
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
     </row>
     <row r="328" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B328" s="12"/>
-      <c r="C328" s="13"/>
-      <c r="K328" s="12"/>
-      <c r="L328" s="12"/>
+      <c r="B328" s="11"/>
+      <c r="C328" s="11"/>
+      <c r="K328" s="11"/>
+      <c r="L328" s="11"/>
     </row>
     <row r="329" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B329" s="12"/>
-      <c r="C329" s="13"/>
-      <c r="K329" s="12"/>
-      <c r="L329" s="12"/>
+      <c r="B329" s="11"/>
+      <c r="C329" s="11"/>
+      <c r="K329" s="11"/>
+      <c r="L329" s="11"/>
     </row>
     <row r="330" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B330" s="12"/>
-      <c r="C330" s="13"/>
-      <c r="K330" s="12"/>
-      <c r="L330" s="12"/>
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
+      <c r="K330" s="11"/>
+      <c r="L330" s="11"/>
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B331" s="12"/>
-      <c r="C331" s="13"/>
-      <c r="K331" s="12"/>
-      <c r="L331" s="12"/>
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="11"/>
     </row>
     <row r="332" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B332" s="12"/>
-      <c r="C332" s="13"/>
-      <c r="K332" s="12"/>
-      <c r="L332" s="12"/>
+      <c r="B332" s="11"/>
+      <c r="C332" s="11"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="11"/>
     </row>
     <row r="333" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B333" s="12"/>
-      <c r="C333" s="13"/>
-      <c r="K333" s="12"/>
-      <c r="L333" s="12"/>
+      <c r="B333" s="11"/>
+      <c r="C333" s="11"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="11"/>
     </row>
     <row r="334" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B334" s="12"/>
-      <c r="C334" s="13"/>
-      <c r="K334" s="12"/>
-      <c r="L334" s="12"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
     </row>
     <row r="335" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B335" s="12"/>
-      <c r="C335" s="13"/>
-      <c r="K335" s="12"/>
-      <c r="L335" s="12"/>
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="11"/>
     </row>
     <row r="336" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B336" s="12"/>
-      <c r="C336" s="13"/>
-      <c r="K336" s="12"/>
-      <c r="L336" s="12"/>
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
+      <c r="K336" s="11"/>
+      <c r="L336" s="11"/>
     </row>
     <row r="337" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B337" s="12"/>
-      <c r="C337" s="13"/>
-      <c r="K337" s="12"/>
-      <c r="L337" s="12"/>
+      <c r="B337" s="11"/>
+      <c r="C337" s="11"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="11"/>
     </row>
     <row r="338" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B338" s="12"/>
-      <c r="C338" s="13"/>
-      <c r="K338" s="12"/>
-      <c r="L338" s="12"/>
+      <c r="B338" s="11"/>
+      <c r="C338" s="11"/>
+      <c r="K338" s="11"/>
+      <c r="L338" s="11"/>
     </row>
     <row r="339" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B339" s="12"/>
-      <c r="C339" s="13"/>
-      <c r="K339" s="12"/>
-      <c r="L339" s="12"/>
+      <c r="B339" s="11"/>
+      <c r="C339" s="11"/>
+      <c r="K339" s="11"/>
+      <c r="L339" s="11"/>
     </row>
     <row r="340" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B340" s="12"/>
-      <c r="C340" s="13"/>
-      <c r="K340" s="12"/>
-      <c r="L340" s="12"/>
+      <c r="B340" s="11"/>
+      <c r="C340" s="11"/>
+      <c r="K340" s="11"/>
+      <c r="L340" s="11"/>
     </row>
     <row r="341" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B341" s="12"/>
-      <c r="C341" s="13"/>
-      <c r="K341" s="12"/>
-      <c r="L341" s="12"/>
+      <c r="B341" s="11"/>
+      <c r="C341" s="11"/>
+      <c r="K341" s="11"/>
+      <c r="L341" s="11"/>
     </row>
     <row r="342" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B342" s="12"/>
-      <c r="C342" s="13"/>
-      <c r="K342" s="12"/>
-      <c r="L342" s="12"/>
+      <c r="B342" s="11"/>
+      <c r="C342" s="11"/>
+      <c r="K342" s="11"/>
+      <c r="L342" s="11"/>
     </row>
     <row r="343" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B343" s="12"/>
-      <c r="C343" s="13"/>
-      <c r="K343" s="12"/>
-      <c r="L343" s="12"/>
+      <c r="B343" s="11"/>
+      <c r="C343" s="11"/>
+      <c r="K343" s="11"/>
+      <c r="L343" s="11"/>
     </row>
     <row r="344" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B344" s="12"/>
-      <c r="C344" s="13"/>
-      <c r="K344" s="12"/>
-      <c r="L344" s="12"/>
+      <c r="B344" s="11"/>
+      <c r="C344" s="11"/>
+      <c r="K344" s="11"/>
+      <c r="L344" s="11"/>
     </row>
     <row r="345" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B345" s="12"/>
-      <c r="C345" s="13"/>
-      <c r="K345" s="12"/>
-      <c r="L345" s="12"/>
+      <c r="B345" s="11"/>
+      <c r="C345" s="11"/>
+      <c r="K345" s="11"/>
+      <c r="L345" s="11"/>
     </row>
     <row r="346" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B346" s="12"/>
-      <c r="C346" s="13"/>
-      <c r="K346" s="12"/>
-      <c r="L346" s="12"/>
+      <c r="B346" s="11"/>
+      <c r="C346" s="11"/>
+      <c r="K346" s="11"/>
+      <c r="L346" s="11"/>
     </row>
     <row r="347" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B347" s="12"/>
-      <c r="C347" s="13"/>
-      <c r="K347" s="12"/>
-      <c r="L347" s="12"/>
+      <c r="B347" s="11"/>
+      <c r="C347" s="11"/>
+      <c r="K347" s="11"/>
+      <c r="L347" s="11"/>
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B348" s="12"/>
-      <c r="C348" s="13"/>
-      <c r="K348" s="12"/>
-      <c r="L348" s="12"/>
+      <c r="B348" s="11"/>
+      <c r="C348" s="11"/>
+      <c r="K348" s="11"/>
+      <c r="L348" s="11"/>
     </row>
     <row r="349" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B349" s="12"/>
-      <c r="C349" s="13"/>
-      <c r="K349" s="12"/>
-      <c r="L349" s="12"/>
+      <c r="B349" s="11"/>
+      <c r="C349" s="11"/>
+      <c r="K349" s="11"/>
+      <c r="L349" s="11"/>
     </row>
     <row r="350" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B350" s="12"/>
-      <c r="C350" s="13"/>
-      <c r="K350" s="12"/>
-      <c r="L350" s="12"/>
+      <c r="B350" s="11"/>
+      <c r="C350" s="11"/>
+      <c r="K350" s="11"/>
+      <c r="L350" s="11"/>
     </row>
     <row r="351" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B351" s="12"/>
-      <c r="C351" s="13"/>
-      <c r="K351" s="12"/>
-      <c r="L351" s="12"/>
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
+      <c r="K351" s="11"/>
+      <c r="L351" s="11"/>
     </row>
     <row r="352" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B352" s="12"/>
-      <c r="C352" s="13"/>
-      <c r="K352" s="12"/>
-      <c r="L352" s="12"/>
+      <c r="B352" s="11"/>
+      <c r="C352" s="11"/>
+      <c r="K352" s="11"/>
+      <c r="L352" s="11"/>
     </row>
     <row r="353" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B353" s="12"/>
-      <c r="C353" s="13"/>
-      <c r="K353" s="12"/>
-      <c r="L353" s="12"/>
+      <c r="B353" s="11"/>
+      <c r="C353" s="11"/>
+      <c r="K353" s="11"/>
+      <c r="L353" s="11"/>
     </row>
     <row r="354" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B354" s="12"/>
-      <c r="C354" s="13"/>
-      <c r="K354" s="12"/>
-      <c r="L354" s="12"/>
+      <c r="B354" s="11"/>
+      <c r="C354" s="11"/>
+      <c r="K354" s="11"/>
+      <c r="L354" s="11"/>
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B355" s="12"/>
-      <c r="C355" s="13"/>
-      <c r="K355" s="12"/>
-      <c r="L355" s="12"/>
+      <c r="B355" s="11"/>
+      <c r="C355" s="11"/>
+      <c r="K355" s="11"/>
+      <c r="L355" s="11"/>
     </row>
     <row r="356" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B356" s="12"/>
-      <c r="C356" s="13"/>
-      <c r="K356" s="12"/>
-      <c r="L356" s="12"/>
+      <c r="B356" s="11"/>
+      <c r="C356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
     </row>
     <row r="357" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B357" s="12"/>
-      <c r="C357" s="13"/>
-      <c r="K357" s="12"/>
-      <c r="L357" s="12"/>
+      <c r="B357" s="11"/>
+      <c r="C357" s="11"/>
+      <c r="K357" s="11"/>
+      <c r="L357" s="11"/>
     </row>
     <row r="358" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B358" s="12"/>
-      <c r="C358" s="13"/>
-      <c r="K358" s="12"/>
-      <c r="L358" s="12"/>
+      <c r="B358" s="11"/>
+      <c r="C358" s="11"/>
+      <c r="K358" s="11"/>
+      <c r="L358" s="11"/>
     </row>
     <row r="359" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B359" s="12"/>
-      <c r="C359" s="13"/>
-      <c r="K359" s="12"/>
-      <c r="L359" s="12"/>
+      <c r="B359" s="11"/>
+      <c r="C359" s="11"/>
+      <c r="K359" s="11"/>
+      <c r="L359" s="11"/>
     </row>
     <row r="360" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B360" s="12"/>
-      <c r="C360" s="13"/>
-      <c r="K360" s="12"/>
-      <c r="L360" s="12"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="11"/>
+      <c r="K360" s="11"/>
+      <c r="L360" s="11"/>
     </row>
     <row r="361" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B361" s="12"/>
-      <c r="C361" s="13"/>
-      <c r="K361" s="12"/>
-      <c r="L361" s="12"/>
+      <c r="B361" s="11"/>
+      <c r="C361" s="11"/>
+      <c r="K361" s="11"/>
+      <c r="L361" s="11"/>
     </row>
     <row r="362" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B362" s="12"/>
-      <c r="C362" s="13"/>
-      <c r="K362" s="12"/>
-      <c r="L362" s="12"/>
+      <c r="B362" s="11"/>
+      <c r="C362" s="11"/>
+      <c r="K362" s="11"/>
+      <c r="L362" s="11"/>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B363" s="12"/>
-      <c r="C363" s="13"/>
-      <c r="K363" s="12"/>
-      <c r="L363" s="12"/>
+      <c r="B363" s="11"/>
+      <c r="C363" s="11"/>
+      <c r="K363" s="11"/>
+      <c r="L363" s="11"/>
     </row>
     <row r="364" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B364" s="12"/>
-      <c r="C364" s="13"/>
-      <c r="K364" s="12"/>
-      <c r="L364" s="12"/>
+      <c r="B364" s="11"/>
+      <c r="C364" s="11"/>
+      <c r="K364" s="11"/>
+      <c r="L364" s="11"/>
     </row>
     <row r="365" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B365" s="12"/>
-      <c r="C365" s="13"/>
-      <c r="K365" s="12"/>
-      <c r="L365" s="12"/>
+      <c r="B365" s="11"/>
+      <c r="C365" s="11"/>
+      <c r="K365" s="11"/>
+      <c r="L365" s="11"/>
     </row>
     <row r="366" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B366" s="12"/>
-      <c r="C366" s="13"/>
-      <c r="K366" s="12"/>
-      <c r="L366" s="12"/>
+      <c r="B366" s="11"/>
+      <c r="C366" s="11"/>
+      <c r="K366" s="11"/>
+      <c r="L366" s="11"/>
     </row>
     <row r="367" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B367" s="12"/>
-      <c r="C367" s="13"/>
-      <c r="K367" s="12"/>
-      <c r="L367" s="12"/>
+      <c r="B367" s="11"/>
+      <c r="C367" s="11"/>
+      <c r="K367" s="11"/>
+      <c r="L367" s="11"/>
     </row>
     <row r="368" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B368" s="12"/>
-      <c r="C368" s="13"/>
-      <c r="K368" s="12"/>
-      <c r="L368" s="12"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
+      <c r="K368" s="11"/>
+      <c r="L368" s="11"/>
     </row>
     <row r="369" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B369" s="12"/>
-      <c r="C369" s="13"/>
-      <c r="K369" s="12"/>
-      <c r="L369" s="12"/>
+      <c r="B369" s="11"/>
+      <c r="C369" s="11"/>
+      <c r="K369" s="11"/>
+      <c r="L369" s="11"/>
     </row>
     <row r="370" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B370" s="12"/>
-      <c r="C370" s="13"/>
-      <c r="K370" s="12"/>
-      <c r="L370" s="12"/>
+      <c r="B370" s="11"/>
+      <c r="C370" s="11"/>
+      <c r="K370" s="11"/>
+      <c r="L370" s="11"/>
     </row>
     <row r="371" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B371" s="12"/>
-      <c r="C371" s="13"/>
-      <c r="K371" s="12"/>
-      <c r="L371" s="12"/>
+      <c r="B371" s="11"/>
+      <c r="C371" s="11"/>
+      <c r="K371" s="11"/>
+      <c r="L371" s="11"/>
     </row>
     <row r="372" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B372" s="12"/>
-      <c r="C372" s="13"/>
-      <c r="K372" s="12"/>
-      <c r="L372" s="12"/>
+      <c r="B372" s="11"/>
+      <c r="C372" s="11"/>
+      <c r="K372" s="11"/>
+      <c r="L372" s="11"/>
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B373" s="12"/>
-      <c r="C373" s="13"/>
-      <c r="K373" s="12"/>
-      <c r="L373" s="12"/>
+      <c r="B373" s="11"/>
+      <c r="C373" s="11"/>
+      <c r="K373" s="11"/>
+      <c r="L373" s="11"/>
     </row>
     <row r="374" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B374" s="12"/>
-      <c r="C374" s="13"/>
-      <c r="K374" s="12"/>
-      <c r="L374" s="12"/>
+      <c r="B374" s="11"/>
+      <c r="C374" s="11"/>
+      <c r="K374" s="11"/>
+      <c r="L374" s="11"/>
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B375" s="12"/>
-      <c r="C375" s="13"/>
-      <c r="K375" s="12"/>
-      <c r="L375" s="12"/>
+      <c r="B375" s="11"/>
+      <c r="C375" s="11"/>
+      <c r="K375" s="11"/>
+      <c r="L375" s="11"/>
     </row>
     <row r="376" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B376" s="12"/>
-      <c r="C376" s="13"/>
-      <c r="K376" s="12"/>
-      <c r="L376" s="12"/>
+      <c r="B376" s="11"/>
+      <c r="C376" s="11"/>
+      <c r="K376" s="11"/>
+      <c r="L376" s="11"/>
     </row>
     <row r="377" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B377" s="12"/>
-      <c r="C377" s="13"/>
-      <c r="K377" s="12"/>
-      <c r="L377" s="12"/>
+      <c r="B377" s="11"/>
+      <c r="C377" s="11"/>
+      <c r="K377" s="11"/>
+      <c r="L377" s="11"/>
     </row>
     <row r="378" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B378" s="12"/>
-      <c r="C378" s="13"/>
-      <c r="K378" s="12"/>
-      <c r="L378" s="12"/>
+      <c r="B378" s="11"/>
+      <c r="C378" s="11"/>
+      <c r="K378" s="11"/>
+      <c r="L378" s="11"/>
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B379" s="12"/>
-      <c r="C379" s="13"/>
-      <c r="K379" s="12"/>
-      <c r="L379" s="12"/>
+      <c r="B379" s="11"/>
+      <c r="C379" s="11"/>
+      <c r="K379" s="11"/>
+      <c r="L379" s="11"/>
     </row>
     <row r="380" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B380" s="12"/>
-      <c r="C380" s="13"/>
-      <c r="K380" s="12"/>
-      <c r="L380" s="12"/>
+      <c r="B380" s="11"/>
+      <c r="C380" s="11"/>
+      <c r="K380" s="11"/>
+      <c r="L380" s="11"/>
     </row>
     <row r="381" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B381" s="12"/>
-      <c r="C381" s="13"/>
-      <c r="K381" s="12"/>
-      <c r="L381" s="12"/>
+      <c r="B381" s="11"/>
+      <c r="C381" s="11"/>
+      <c r="K381" s="11"/>
+      <c r="L381" s="11"/>
     </row>
     <row r="382" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B382" s="12"/>
-      <c r="C382" s="13"/>
-      <c r="K382" s="12"/>
-      <c r="L382" s="12"/>
+      <c r="B382" s="11"/>
+      <c r="C382" s="11"/>
+      <c r="K382" s="11"/>
+      <c r="L382" s="11"/>
     </row>
     <row r="383" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B383" s="12"/>
-      <c r="C383" s="13"/>
-      <c r="K383" s="12"/>
-      <c r="L383" s="12"/>
+      <c r="B383" s="11"/>
+      <c r="C383" s="11"/>
+      <c r="K383" s="11"/>
+      <c r="L383" s="11"/>
     </row>
     <row r="384" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B384" s="12"/>
-      <c r="C384" s="13"/>
-      <c r="K384" s="12"/>
-      <c r="L384" s="12"/>
+      <c r="B384" s="11"/>
+      <c r="C384" s="11"/>
+      <c r="K384" s="11"/>
+      <c r="L384" s="11"/>
     </row>
     <row r="385" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B385" s="12"/>
-      <c r="C385" s="13"/>
-      <c r="K385" s="12"/>
-      <c r="L385" s="12"/>
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="K385" s="11"/>
+      <c r="L385" s="11"/>
     </row>
     <row r="386" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B386" s="12"/>
-      <c r="C386" s="13"/>
-      <c r="K386" s="12"/>
-      <c r="L386" s="12"/>
+      <c r="B386" s="11"/>
+      <c r="C386" s="11"/>
+      <c r="K386" s="11"/>
+      <c r="L386" s="11"/>
     </row>
     <row r="387" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B387" s="12"/>
-      <c r="C387" s="13"/>
-      <c r="K387" s="12"/>
-      <c r="L387" s="12"/>
+      <c r="B387" s="11"/>
+      <c r="C387" s="11"/>
+      <c r="K387" s="11"/>
+      <c r="L387" s="11"/>
     </row>
     <row r="388" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B388" s="12"/>
-      <c r="C388" s="13"/>
-      <c r="K388" s="12"/>
-      <c r="L388" s="12"/>
+      <c r="B388" s="11"/>
+      <c r="C388" s="11"/>
+      <c r="K388" s="11"/>
+      <c r="L388" s="11"/>
     </row>
     <row r="389" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B389" s="12"/>
-      <c r="C389" s="13"/>
-      <c r="K389" s="12"/>
-      <c r="L389" s="12"/>
+      <c r="B389" s="11"/>
+      <c r="C389" s="11"/>
+      <c r="K389" s="11"/>
+      <c r="L389" s="11"/>
     </row>
     <row r="390" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B390" s="12"/>
-      <c r="C390" s="13"/>
-      <c r="K390" s="12"/>
-      <c r="L390" s="12"/>
+      <c r="B390" s="11"/>
+      <c r="C390" s="11"/>
+      <c r="K390" s="11"/>
+      <c r="L390" s="11"/>
     </row>
     <row r="391" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B391" s="12"/>
-      <c r="C391" s="13"/>
-      <c r="K391" s="12"/>
-      <c r="L391" s="12"/>
+      <c r="B391" s="11"/>
+      <c r="C391" s="11"/>
+      <c r="K391" s="11"/>
+      <c r="L391" s="11"/>
     </row>
     <row r="392" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B392" s="12"/>
-      <c r="C392" s="13"/>
-      <c r="K392" s="12"/>
-      <c r="L392" s="12"/>
+      <c r="B392" s="11"/>
+      <c r="C392" s="11"/>
+      <c r="K392" s="11"/>
+      <c r="L392" s="11"/>
     </row>
     <row r="393" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B393" s="12"/>
-      <c r="C393" s="13"/>
-      <c r="K393" s="12"/>
-      <c r="L393" s="12"/>
+      <c r="B393" s="11"/>
+      <c r="C393" s="11"/>
+      <c r="K393" s="11"/>
+      <c r="L393" s="11"/>
     </row>
     <row r="394" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B394" s="12"/>
-      <c r="C394" s="13"/>
-      <c r="K394" s="12"/>
-      <c r="L394" s="12"/>
+      <c r="B394" s="11"/>
+      <c r="C394" s="11"/>
+      <c r="K394" s="11"/>
+      <c r="L394" s="11"/>
     </row>
     <row r="395" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B395" s="12"/>
-      <c r="C395" s="13"/>
-      <c r="K395" s="12"/>
-      <c r="L395" s="12"/>
+      <c r="B395" s="11"/>
+      <c r="C395" s="11"/>
+      <c r="K395" s="11"/>
+      <c r="L395" s="11"/>
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B396" s="12"/>
-      <c r="C396" s="13"/>
-      <c r="K396" s="12"/>
-      <c r="L396" s="12"/>
+      <c r="B396" s="11"/>
+      <c r="C396" s="11"/>
+      <c r="K396" s="11"/>
+      <c r="L396" s="11"/>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B397" s="12"/>
-      <c r="C397" s="13"/>
-      <c r="K397" s="12"/>
-      <c r="L397" s="12"/>
+      <c r="B397" s="11"/>
+      <c r="C397" s="11"/>
+      <c r="K397" s="11"/>
+      <c r="L397" s="11"/>
     </row>
     <row r="398" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B398" s="12"/>
-      <c r="C398" s="13"/>
-      <c r="K398" s="12"/>
-      <c r="L398" s="12"/>
+      <c r="B398" s="11"/>
+      <c r="C398" s="11"/>
+      <c r="K398" s="11"/>
+      <c r="L398" s="11"/>
     </row>
     <row r="399" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B399" s="12"/>
-      <c r="C399" s="13"/>
-      <c r="K399" s="12"/>
-      <c r="L399" s="12"/>
+      <c r="B399" s="11"/>
+      <c r="C399" s="11"/>
+      <c r="K399" s="11"/>
+      <c r="L399" s="11"/>
     </row>
     <row r="400" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B400" s="12"/>
-      <c r="C400" s="13"/>
-      <c r="K400" s="12"/>
-      <c r="L400" s="12"/>
+      <c r="B400" s="11"/>
+      <c r="C400" s="11"/>
+      <c r="K400" s="11"/>
+      <c r="L400" s="11"/>
     </row>
     <row r="401" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B401" s="12"/>
-      <c r="C401" s="13"/>
-      <c r="K401" s="12"/>
-      <c r="L401" s="12"/>
+      <c r="B401" s="11"/>
+      <c r="C401" s="11"/>
+      <c r="K401" s="11"/>
+      <c r="L401" s="11"/>
     </row>
     <row r="402" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B402" s="12"/>
-      <c r="C402" s="13"/>
-      <c r="K402" s="12"/>
-      <c r="L402" s="12"/>
+      <c r="B402" s="11"/>
+      <c r="C402" s="11"/>
+      <c r="K402" s="11"/>
+      <c r="L402" s="11"/>
     </row>
     <row r="403" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B403" s="12"/>
-      <c r="C403" s="13"/>
-      <c r="K403" s="12"/>
-      <c r="L403" s="12"/>
+      <c r="B403" s="11"/>
+      <c r="C403" s="11"/>
+      <c r="K403" s="11"/>
+      <c r="L403" s="11"/>
     </row>
     <row r="404" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B404" s="12"/>
-      <c r="C404" s="13"/>
-      <c r="K404" s="12"/>
-      <c r="L404" s="12"/>
+      <c r="B404" s="11"/>
+      <c r="C404" s="11"/>
+      <c r="K404" s="11"/>
+      <c r="L404" s="11"/>
     </row>
     <row r="405" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B405" s="12"/>
-      <c r="C405" s="13"/>
-      <c r="K405" s="12"/>
-      <c r="L405" s="12"/>
+      <c r="B405" s="11"/>
+      <c r="C405" s="11"/>
+      <c r="K405" s="11"/>
+      <c r="L405" s="11"/>
     </row>
     <row r="406" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B406" s="12"/>
-      <c r="C406" s="13"/>
-      <c r="K406" s="12"/>
-      <c r="L406" s="12"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="11"/>
+      <c r="K406" s="11"/>
+      <c r="L406" s="11"/>
     </row>
     <row r="407" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B407" s="12"/>
-      <c r="C407" s="13"/>
-      <c r="K407" s="12"/>
-      <c r="L407" s="12"/>
+      <c r="B407" s="11"/>
+      <c r="C407" s="11"/>
+      <c r="K407" s="11"/>
+      <c r="L407" s="11"/>
     </row>
     <row r="408" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B408" s="12"/>
-      <c r="C408" s="13"/>
-      <c r="K408" s="12"/>
-      <c r="L408" s="12"/>
+      <c r="B408" s="11"/>
+      <c r="C408" s="11"/>
+      <c r="K408" s="11"/>
+      <c r="L408" s="11"/>
     </row>
     <row r="409" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B409" s="12"/>
-      <c r="C409" s="13"/>
-      <c r="K409" s="12"/>
-      <c r="L409" s="12"/>
+      <c r="B409" s="11"/>
+      <c r="C409" s="11"/>
+      <c r="K409" s="11"/>
+      <c r="L409" s="11"/>
     </row>
     <row r="410" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B410" s="12"/>
-      <c r="C410" s="13"/>
-      <c r="K410" s="12"/>
-      <c r="L410" s="12"/>
+      <c r="B410" s="11"/>
+      <c r="C410" s="11"/>
+      <c r="K410" s="11"/>
+      <c r="L410" s="11"/>
     </row>
     <row r="411" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B411" s="12"/>
-      <c r="C411" s="13"/>
-      <c r="K411" s="12"/>
-      <c r="L411" s="12"/>
+      <c r="B411" s="11"/>
+      <c r="C411" s="11"/>
+      <c r="K411" s="11"/>
+      <c r="L411" s="11"/>
     </row>
     <row r="412" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B412" s="12"/>
-      <c r="C412" s="13"/>
-      <c r="K412" s="12"/>
-      <c r="L412" s="12"/>
+      <c r="B412" s="11"/>
+      <c r="C412" s="11"/>
+      <c r="K412" s="11"/>
+      <c r="L412" s="11"/>
     </row>
     <row r="413" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B413" s="12"/>
-      <c r="C413" s="13"/>
-      <c r="K413" s="12"/>
-      <c r="L413" s="12"/>
+      <c r="B413" s="11"/>
+      <c r="C413" s="11"/>
+      <c r="K413" s="11"/>
+      <c r="L413" s="11"/>
     </row>
     <row r="414" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B414" s="12"/>
-      <c r="C414" s="13"/>
-      <c r="K414" s="12"/>
-      <c r="L414" s="12"/>
+      <c r="B414" s="11"/>
+      <c r="C414" s="11"/>
+      <c r="K414" s="11"/>
+      <c r="L414" s="11"/>
     </row>
     <row r="415" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B415" s="12"/>
-      <c r="C415" s="13"/>
-      <c r="K415" s="12"/>
-      <c r="L415" s="12"/>
+      <c r="B415" s="11"/>
+      <c r="C415" s="11"/>
+      <c r="K415" s="11"/>
+      <c r="L415" s="11"/>
     </row>
     <row r="416" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B416" s="12"/>
-      <c r="C416" s="13"/>
-      <c r="K416" s="12"/>
-      <c r="L416" s="12"/>
+      <c r="B416" s="11"/>
+      <c r="C416" s="11"/>
+      <c r="K416" s="11"/>
+      <c r="L416" s="11"/>
     </row>
     <row r="417" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B417" s="12"/>
-      <c r="C417" s="13"/>
-      <c r="K417" s="12"/>
-      <c r="L417" s="12"/>
+      <c r="B417" s="11"/>
+      <c r="C417" s="11"/>
+      <c r="K417" s="11"/>
+      <c r="L417" s="11"/>
     </row>
     <row r="418" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B418" s="12"/>
-      <c r="C418" s="13"/>
-      <c r="K418" s="12"/>
-      <c r="L418" s="12"/>
+      <c r="B418" s="11"/>
+      <c r="C418" s="11"/>
+      <c r="K418" s="11"/>
+      <c r="L418" s="11"/>
     </row>
     <row r="419" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B419" s="12"/>
-      <c r="C419" s="13"/>
-      <c r="K419" s="12"/>
-      <c r="L419" s="12"/>
+      <c r="B419" s="11"/>
+      <c r="C419" s="11"/>
+      <c r="K419" s="11"/>
+      <c r="L419" s="11"/>
     </row>
     <row r="420" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B420" s="12"/>
-      <c r="C420" s="13"/>
-      <c r="K420" s="12"/>
-      <c r="L420" s="12"/>
+      <c r="B420" s="11"/>
+      <c r="C420" s="11"/>
+      <c r="K420" s="11"/>
+      <c r="L420" s="11"/>
     </row>
     <row r="421" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B421" s="12"/>
-      <c r="C421" s="13"/>
-      <c r="K421" s="12"/>
-      <c r="L421" s="12"/>
+      <c r="B421" s="11"/>
+      <c r="C421" s="11"/>
+      <c r="K421" s="11"/>
+      <c r="L421" s="11"/>
     </row>
     <row r="422" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B422" s="12"/>
-      <c r="C422" s="13"/>
-      <c r="K422" s="12"/>
-      <c r="L422" s="12"/>
+      <c r="B422" s="11"/>
+      <c r="C422" s="11"/>
+      <c r="K422" s="11"/>
+      <c r="L422" s="11"/>
     </row>
     <row r="423" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B423" s="12"/>
-      <c r="C423" s="13"/>
-      <c r="K423" s="12"/>
-      <c r="L423" s="12"/>
+      <c r="B423" s="11"/>
+      <c r="C423" s="11"/>
+      <c r="K423" s="11"/>
+      <c r="L423" s="11"/>
     </row>
     <row r="424" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B424" s="12"/>
-      <c r="C424" s="13"/>
-      <c r="K424" s="12"/>
-      <c r="L424" s="12"/>
+      <c r="B424" s="11"/>
+      <c r="C424" s="11"/>
+      <c r="K424" s="11"/>
+      <c r="L424" s="11"/>
     </row>
     <row r="425" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B425" s="12"/>
-      <c r="C425" s="13"/>
-      <c r="K425" s="12"/>
-      <c r="L425" s="12"/>
+      <c r="B425" s="11"/>
+      <c r="C425" s="11"/>
+      <c r="K425" s="11"/>
+      <c r="L425" s="11"/>
     </row>
     <row r="426" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B426" s="12"/>
-      <c r="C426" s="13"/>
-      <c r="K426" s="12"/>
-      <c r="L426" s="12"/>
+      <c r="B426" s="11"/>
+      <c r="C426" s="11"/>
+      <c r="K426" s="11"/>
+      <c r="L426" s="11"/>
     </row>
     <row r="427" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B427" s="12"/>
-      <c r="C427" s="13"/>
-      <c r="K427" s="12"/>
-      <c r="L427" s="12"/>
+      <c r="B427" s="11"/>
+      <c r="C427" s="11"/>
+      <c r="K427" s="11"/>
+      <c r="L427" s="11"/>
     </row>
     <row r="428" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B428" s="12"/>
-      <c r="C428" s="13"/>
-      <c r="K428" s="12"/>
-      <c r="L428" s="12"/>
+      <c r="B428" s="11"/>
+      <c r="C428" s="11"/>
+      <c r="K428" s="11"/>
+      <c r="L428" s="11"/>
     </row>
     <row r="429" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B429" s="12"/>
-      <c r="C429" s="13"/>
-      <c r="K429" s="12"/>
-      <c r="L429" s="12"/>
+      <c r="B429" s="11"/>
+      <c r="C429" s="11"/>
+      <c r="K429" s="11"/>
+      <c r="L429" s="11"/>
     </row>
     <row r="430" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B430" s="12"/>
-      <c r="C430" s="13"/>
-      <c r="K430" s="12"/>
-      <c r="L430" s="12"/>
+      <c r="B430" s="11"/>
+      <c r="C430" s="11"/>
+      <c r="K430" s="11"/>
+      <c r="L430" s="11"/>
     </row>
     <row r="431" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B431" s="12"/>
-      <c r="C431" s="13"/>
-      <c r="K431" s="12"/>
-      <c r="L431" s="12"/>
+      <c r="B431" s="11"/>
+      <c r="C431" s="11"/>
+      <c r="K431" s="11"/>
+      <c r="L431" s="11"/>
     </row>
     <row r="432" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B432" s="12"/>
-      <c r="C432" s="13"/>
-      <c r="K432" s="12"/>
-      <c r="L432" s="12"/>
+      <c r="B432" s="11"/>
+      <c r="C432" s="11"/>
+      <c r="K432" s="11"/>
+      <c r="L432" s="11"/>
     </row>
     <row r="433" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B433" s="12"/>
-      <c r="C433" s="13"/>
-      <c r="K433" s="12"/>
-      <c r="L433" s="12"/>
+      <c r="B433" s="11"/>
+      <c r="C433" s="11"/>
+      <c r="K433" s="11"/>
+      <c r="L433" s="11"/>
     </row>
     <row r="434" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B434" s="12"/>
-      <c r="C434" s="13"/>
-      <c r="K434" s="12"/>
-      <c r="L434" s="12"/>
+      <c r="B434" s="11"/>
+      <c r="C434" s="11"/>
+      <c r="K434" s="11"/>
+      <c r="L434" s="11"/>
     </row>
     <row r="435" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B435" s="12"/>
-      <c r="C435" s="13"/>
-      <c r="K435" s="12"/>
-      <c r="L435" s="12"/>
+      <c r="B435" s="11"/>
+      <c r="C435" s="11"/>
+      <c r="K435" s="11"/>
+      <c r="L435" s="11"/>
     </row>
     <row r="436" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B436" s="12"/>
-      <c r="C436" s="13"/>
-      <c r="K436" s="12"/>
-      <c r="L436" s="12"/>
+      <c r="B436" s="11"/>
+      <c r="C436" s="11"/>
+      <c r="K436" s="11"/>
+      <c r="L436" s="11"/>
     </row>
     <row r="437" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B437" s="12"/>
-      <c r="C437" s="13"/>
-      <c r="K437" s="12"/>
-      <c r="L437" s="12"/>
+      <c r="B437" s="11"/>
+      <c r="C437" s="11"/>
+      <c r="K437" s="11"/>
+      <c r="L437" s="11"/>
     </row>
     <row r="438" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B438" s="12"/>
-      <c r="C438" s="13"/>
-      <c r="K438" s="12"/>
-      <c r="L438" s="12"/>
+      <c r="B438" s="11"/>
+      <c r="C438" s="11"/>
+      <c r="K438" s="11"/>
+      <c r="L438" s="11"/>
     </row>
     <row r="439" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B439" s="12"/>
-      <c r="C439" s="13"/>
-      <c r="K439" s="12"/>
-      <c r="L439" s="12"/>
+      <c r="B439" s="11"/>
+      <c r="C439" s="11"/>
+      <c r="K439" s="11"/>
+      <c r="L439" s="11"/>
     </row>
     <row r="440" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B440" s="12"/>
-      <c r="C440" s="13"/>
-      <c r="K440" s="12"/>
-      <c r="L440" s="12"/>
+      <c r="B440" s="11"/>
+      <c r="C440" s="11"/>
+      <c r="K440" s="11"/>
+      <c r="L440" s="11"/>
     </row>
     <row r="441" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B441" s="12"/>
-      <c r="C441" s="13"/>
-      <c r="K441" s="12"/>
-      <c r="L441" s="12"/>
+      <c r="B441" s="11"/>
+      <c r="C441" s="11"/>
+      <c r="K441" s="11"/>
+      <c r="L441" s="11"/>
     </row>
     <row r="442" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B442" s="12"/>
-      <c r="C442" s="13"/>
-      <c r="K442" s="12"/>
-      <c r="L442" s="12"/>
+      <c r="B442" s="11"/>
+      <c r="C442" s="11"/>
+      <c r="K442" s="11"/>
+      <c r="L442" s="11"/>
     </row>
     <row r="443" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B443" s="12"/>
-      <c r="C443" s="13"/>
-      <c r="K443" s="12"/>
-      <c r="L443" s="12"/>
+      <c r="B443" s="11"/>
+      <c r="C443" s="11"/>
+      <c r="K443" s="11"/>
+      <c r="L443" s="11"/>
     </row>
     <row r="444" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B444" s="12"/>
-      <c r="C444" s="13"/>
-      <c r="K444" s="12"/>
-      <c r="L444" s="12"/>
+      <c r="B444" s="11"/>
+      <c r="C444" s="11"/>
+      <c r="K444" s="11"/>
+      <c r="L444" s="11"/>
     </row>
     <row r="445" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B445" s="12"/>
-      <c r="C445" s="13"/>
-      <c r="K445" s="12"/>
-      <c r="L445" s="12"/>
+      <c r="B445" s="11"/>
+      <c r="C445" s="11"/>
+      <c r="K445" s="11"/>
+      <c r="L445" s="11"/>
     </row>
     <row r="446" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B446" s="12"/>
-      <c r="C446" s="13"/>
-      <c r="K446" s="12"/>
-      <c r="L446" s="12"/>
+      <c r="B446" s="11"/>
+      <c r="C446" s="11"/>
+      <c r="K446" s="11"/>
+      <c r="L446" s="11"/>
     </row>
     <row r="447" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B447" s="12"/>
-      <c r="C447" s="13"/>
-      <c r="K447" s="12"/>
-      <c r="L447" s="12"/>
+      <c r="B447" s="11"/>
+      <c r="C447" s="11"/>
+      <c r="K447" s="11"/>
+      <c r="L447" s="11"/>
     </row>
     <row r="448" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B448" s="12"/>
-      <c r="C448" s="13"/>
-      <c r="K448" s="12"/>
-      <c r="L448" s="12"/>
+      <c r="B448" s="11"/>
+      <c r="C448" s="11"/>
+      <c r="K448" s="11"/>
+      <c r="L448" s="11"/>
     </row>
     <row r="449" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B449" s="12"/>
-      <c r="C449" s="13"/>
-      <c r="K449" s="12"/>
-      <c r="L449" s="12"/>
+      <c r="B449" s="11"/>
+      <c r="C449" s="11"/>
+      <c r="K449" s="11"/>
+      <c r="L449" s="11"/>
     </row>
     <row r="450" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B450" s="12"/>
-      <c r="C450" s="13"/>
-      <c r="K450" s="12"/>
-      <c r="L450" s="12"/>
+      <c r="B450" s="11"/>
+      <c r="C450" s="11"/>
+      <c r="K450" s="11"/>
+      <c r="L450" s="11"/>
     </row>
     <row r="451" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B451" s="12"/>
-      <c r="C451" s="13"/>
-      <c r="K451" s="12"/>
-      <c r="L451" s="12"/>
+      <c r="B451" s="11"/>
+      <c r="C451" s="11"/>
+      <c r="K451" s="11"/>
+      <c r="L451" s="11"/>
     </row>
     <row r="452" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B452" s="12"/>
-      <c r="C452" s="13"/>
-      <c r="K452" s="12"/>
-      <c r="L452" s="12"/>
+      <c r="B452" s="11"/>
+      <c r="C452" s="11"/>
+      <c r="K452" s="11"/>
+      <c r="L452" s="11"/>
     </row>
     <row r="453" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B453" s="12"/>
-      <c r="C453" s="13"/>
-      <c r="K453" s="12"/>
-      <c r="L453" s="12"/>
+      <c r="B453" s="11"/>
+      <c r="C453" s="11"/>
+      <c r="K453" s="11"/>
+      <c r="L453" s="11"/>
     </row>
     <row r="454" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B454" s="12"/>
-      <c r="C454" s="13"/>
-      <c r="K454" s="12"/>
-      <c r="L454" s="12"/>
+      <c r="B454" s="11"/>
+      <c r="C454" s="11"/>
+      <c r="K454" s="11"/>
+      <c r="L454" s="11"/>
     </row>
     <row r="455" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B455" s="12"/>
-      <c r="C455" s="13"/>
-      <c r="K455" s="12"/>
-      <c r="L455" s="12"/>
+      <c r="B455" s="11"/>
+      <c r="C455" s="11"/>
+      <c r="K455" s="11"/>
+      <c r="L455" s="11"/>
     </row>
     <row r="456" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B456" s="12"/>
-      <c r="C456" s="13"/>
-      <c r="K456" s="12"/>
-      <c r="L456" s="12"/>
+      <c r="B456" s="11"/>
+      <c r="C456" s="11"/>
+      <c r="K456" s="11"/>
+      <c r="L456" s="11"/>
     </row>
     <row r="457" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B457" s="12"/>
-      <c r="C457" s="13"/>
-      <c r="K457" s="12"/>
-      <c r="L457" s="12"/>
+      <c r="B457" s="11"/>
+      <c r="C457" s="11"/>
+      <c r="K457" s="11"/>
+      <c r="L457" s="11"/>
     </row>
     <row r="458" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B458" s="12"/>
-      <c r="C458" s="13"/>
-      <c r="K458" s="12"/>
-      <c r="L458" s="12"/>
+      <c r="B458" s="11"/>
+      <c r="C458" s="11"/>
+      <c r="K458" s="11"/>
+      <c r="L458" s="11"/>
     </row>
     <row r="459" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B459" s="12"/>
-      <c r="C459" s="13"/>
-      <c r="K459" s="12"/>
-      <c r="L459" s="12"/>
+      <c r="B459" s="11"/>
+      <c r="C459" s="11"/>
+      <c r="K459" s="11"/>
+      <c r="L459" s="11"/>
     </row>
     <row r="460" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B460" s="12"/>
-      <c r="C460" s="13"/>
-      <c r="K460" s="12"/>
-      <c r="L460" s="12"/>
+      <c r="B460" s="11"/>
+      <c r="C460" s="11"/>
+      <c r="K460" s="11"/>
+      <c r="L460" s="11"/>
     </row>
     <row r="461" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B461" s="12"/>
-      <c r="C461" s="13"/>
-      <c r="K461" s="12"/>
-      <c r="L461" s="12"/>
+      <c r="B461" s="11"/>
+      <c r="C461" s="11"/>
+      <c r="K461" s="11"/>
+      <c r="L461" s="11"/>
     </row>
     <row r="462" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B462" s="12"/>
-      <c r="C462" s="13"/>
-      <c r="K462" s="12"/>
-      <c r="L462" s="12"/>
+      <c r="B462" s="11"/>
+      <c r="C462" s="11"/>
+      <c r="K462" s="11"/>
+      <c r="L462" s="11"/>
     </row>
     <row r="463" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B463" s="12"/>
-      <c r="C463" s="13"/>
-      <c r="K463" s="12"/>
-      <c r="L463" s="12"/>
+      <c r="B463" s="11"/>
+      <c r="C463" s="11"/>
+      <c r="K463" s="11"/>
+      <c r="L463" s="11"/>
     </row>
     <row r="464" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B464" s="12"/>
-      <c r="C464" s="13"/>
-      <c r="K464" s="12"/>
-      <c r="L464" s="12"/>
+      <c r="B464" s="11"/>
+      <c r="C464" s="11"/>
+      <c r="K464" s="11"/>
+      <c r="L464" s="11"/>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B465" s="12"/>
-      <c r="C465" s="13"/>
-      <c r="K465" s="12"/>
-      <c r="L465" s="12"/>
+      <c r="B465" s="11"/>
+      <c r="C465" s="11"/>
+      <c r="K465" s="11"/>
+      <c r="L465" s="11"/>
     </row>
     <row r="466" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B466" s="12"/>
-      <c r="C466" s="13"/>
-      <c r="K466" s="12"/>
-      <c r="L466" s="12"/>
+      <c r="B466" s="11"/>
+      <c r="C466" s="11"/>
+      <c r="K466" s="11"/>
+      <c r="L466" s="11"/>
     </row>
     <row r="467" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B467" s="12"/>
-      <c r="C467" s="13"/>
-      <c r="K467" s="12"/>
-      <c r="L467" s="12"/>
+      <c r="B467" s="11"/>
+      <c r="C467" s="11"/>
+      <c r="K467" s="11"/>
+      <c r="L467" s="11"/>
     </row>
     <row r="468" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B468" s="12"/>
-      <c r="C468" s="13"/>
-      <c r="K468" s="12"/>
-      <c r="L468" s="12"/>
+      <c r="B468" s="11"/>
+      <c r="C468" s="11"/>
+      <c r="K468" s="11"/>
+      <c r="L468" s="11"/>
     </row>
     <row r="469" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B469" s="12"/>
-      <c r="C469" s="13"/>
-      <c r="K469" s="12"/>
-      <c r="L469" s="12"/>
+      <c r="B469" s="11"/>
+      <c r="C469" s="11"/>
+      <c r="K469" s="11"/>
+      <c r="L469" s="11"/>
     </row>
     <row r="470" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B470" s="12"/>
-      <c r="C470" s="13"/>
-      <c r="K470" s="12"/>
-      <c r="L470" s="12"/>
+      <c r="B470" s="11"/>
+      <c r="C470" s="11"/>
+      <c r="K470" s="11"/>
+      <c r="L470" s="11"/>
     </row>
     <row r="471" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B471" s="12"/>
-      <c r="C471" s="13"/>
-      <c r="K471" s="12"/>
-      <c r="L471" s="12"/>
+      <c r="B471" s="11"/>
+      <c r="C471" s="11"/>
+      <c r="K471" s="11"/>
+      <c r="L471" s="11"/>
     </row>
     <row r="472" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B472" s="12"/>
-      <c r="C472" s="13"/>
-      <c r="K472" s="12"/>
-      <c r="L472" s="12"/>
+      <c r="B472" s="11"/>
+      <c r="C472" s="11"/>
+      <c r="K472" s="11"/>
+      <c r="L472" s="11"/>
     </row>
     <row r="473" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B473" s="12"/>
-      <c r="C473" s="13"/>
-      <c r="K473" s="12"/>
-      <c r="L473" s="12"/>
+      <c r="B473" s="11"/>
+      <c r="C473" s="11"/>
+      <c r="K473" s="11"/>
+      <c r="L473" s="11"/>
     </row>
     <row r="474" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B474" s="12"/>
-      <c r="C474" s="13"/>
-      <c r="K474" s="12"/>
-      <c r="L474" s="12"/>
+      <c r="B474" s="11"/>
+      <c r="C474" s="11"/>
+      <c r="K474" s="11"/>
+      <c r="L474" s="11"/>
     </row>
     <row r="475" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B475" s="12"/>
-      <c r="C475" s="13"/>
-      <c r="K475" s="12"/>
-      <c r="L475" s="12"/>
+      <c r="B475" s="11"/>
+      <c r="C475" s="11"/>
+      <c r="K475" s="11"/>
+      <c r="L475" s="11"/>
     </row>
     <row r="476" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B476" s="12"/>
-      <c r="C476" s="13"/>
-      <c r="K476" s="12"/>
-      <c r="L476" s="12"/>
+      <c r="B476" s="11"/>
+      <c r="C476" s="11"/>
+      <c r="K476" s="11"/>
+      <c r="L476" s="11"/>
     </row>
     <row r="477" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B477" s="12"/>
-      <c r="C477" s="13"/>
-      <c r="K477" s="12"/>
-      <c r="L477" s="12"/>
+      <c r="B477" s="11"/>
+      <c r="C477" s="11"/>
+      <c r="K477" s="11"/>
+      <c r="L477" s="11"/>
     </row>
     <row r="478" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B478" s="12"/>
-      <c r="C478" s="13"/>
-      <c r="K478" s="12"/>
-      <c r="L478" s="12"/>
+      <c r="B478" s="11"/>
+      <c r="C478" s="11"/>
+      <c r="K478" s="11"/>
+      <c r="L478" s="11"/>
     </row>
     <row r="479" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B479" s="12"/>
-      <c r="C479" s="13"/>
-      <c r="K479" s="12"/>
-      <c r="L479" s="12"/>
+      <c r="B479" s="11"/>
+      <c r="C479" s="11"/>
+      <c r="K479" s="11"/>
+      <c r="L479" s="11"/>
     </row>
     <row r="480" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B480" s="12"/>
-      <c r="C480" s="13"/>
-      <c r="K480" s="12"/>
-      <c r="L480" s="12"/>
+      <c r="B480" s="11"/>
+      <c r="C480" s="11"/>
+      <c r="K480" s="11"/>
+      <c r="L480" s="11"/>
     </row>
     <row r="481" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B481" s="12"/>
-      <c r="C481" s="13"/>
-      <c r="K481" s="12"/>
-      <c r="L481" s="12"/>
+      <c r="B481" s="11"/>
+      <c r="C481" s="11"/>
+      <c r="K481" s="11"/>
+      <c r="L481" s="11"/>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B482" s="12"/>
-      <c r="C482" s="13"/>
-      <c r="K482" s="12"/>
-      <c r="L482" s="12"/>
+      <c r="B482" s="11"/>
+      <c r="C482" s="11"/>
+      <c r="K482" s="11"/>
+      <c r="L482" s="11"/>
     </row>
     <row r="483" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B483" s="12"/>
-      <c r="C483" s="13"/>
-      <c r="K483" s="12"/>
-      <c r="L483" s="12"/>
+      <c r="B483" s="11"/>
+      <c r="C483" s="11"/>
+      <c r="K483" s="11"/>
+      <c r="L483" s="11"/>
     </row>
     <row r="484" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B484" s="12"/>
-      <c r="C484" s="13"/>
-      <c r="K484" s="12"/>
-      <c r="L484" s="12"/>
+      <c r="B484" s="11"/>
+      <c r="C484" s="11"/>
+      <c r="K484" s="11"/>
+      <c r="L484" s="11"/>
     </row>
     <row r="485" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B485" s="12"/>
-      <c r="C485" s="13"/>
-      <c r="K485" s="12"/>
-      <c r="L485" s="12"/>
+      <c r="B485" s="11"/>
+      <c r="C485" s="11"/>
+      <c r="K485" s="11"/>
+      <c r="L485" s="11"/>
     </row>
     <row r="486" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B486" s="12"/>
-      <c r="C486" s="13"/>
-      <c r="K486" s="12"/>
-      <c r="L486" s="12"/>
+      <c r="B486" s="11"/>
+      <c r="C486" s="11"/>
+      <c r="K486" s="11"/>
+      <c r="L486" s="11"/>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B487" s="12"/>
-      <c r="C487" s="13"/>
-      <c r="K487" s="12"/>
-      <c r="L487" s="12"/>
+      <c r="B487" s="11"/>
+      <c r="C487" s="11"/>
+      <c r="K487" s="11"/>
+      <c r="L487" s="11"/>
     </row>
     <row r="488" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B488" s="12"/>
-      <c r="C488" s="13"/>
-      <c r="K488" s="12"/>
-      <c r="L488" s="12"/>
+      <c r="B488" s="11"/>
+      <c r="C488" s="11"/>
+      <c r="K488" s="11"/>
+      <c r="L488" s="11"/>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B489" s="12"/>
-      <c r="C489" s="13"/>
-      <c r="K489" s="12"/>
-      <c r="L489" s="12"/>
+      <c r="B489" s="11"/>
+      <c r="C489" s="11"/>
+      <c r="K489" s="11"/>
+      <c r="L489" s="11"/>
     </row>
     <row r="490" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B490" s="12"/>
-      <c r="C490" s="13"/>
-      <c r="K490" s="12"/>
-      <c r="L490" s="12"/>
+      <c r="B490" s="11"/>
+      <c r="C490" s="11"/>
+      <c r="K490" s="11"/>
+      <c r="L490" s="11"/>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B491" s="12"/>
-      <c r="C491" s="13"/>
-      <c r="K491" s="12"/>
-      <c r="L491" s="12"/>
+      <c r="B491" s="11"/>
+      <c r="C491" s="11"/>
+      <c r="K491" s="11"/>
+      <c r="L491" s="11"/>
     </row>
     <row r="492" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B492" s="12"/>
-      <c r="C492" s="13"/>
-      <c r="K492" s="12"/>
-      <c r="L492" s="12"/>
+      <c r="B492" s="11"/>
+      <c r="C492" s="11"/>
+      <c r="K492" s="11"/>
+      <c r="L492" s="11"/>
     </row>
     <row r="493" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B493" s="12"/>
-      <c r="C493" s="13"/>
-      <c r="K493" s="12"/>
-      <c r="L493" s="12"/>
+      <c r="B493" s="11"/>
+      <c r="C493" s="11"/>
+      <c r="K493" s="11"/>
+      <c r="L493" s="11"/>
     </row>
     <row r="494" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B494" s="12"/>
-      <c r="C494" s="13"/>
-      <c r="K494" s="12"/>
-      <c r="L494" s="12"/>
+      <c r="B494" s="11"/>
+      <c r="C494" s="11"/>
+      <c r="K494" s="11"/>
+      <c r="L494" s="11"/>
     </row>
     <row r="495" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B495" s="12"/>
-      <c r="C495" s="13"/>
-      <c r="K495" s="12"/>
-      <c r="L495" s="12"/>
+      <c r="B495" s="11"/>
+      <c r="C495" s="11"/>
+      <c r="K495" s="11"/>
+      <c r="L495" s="11"/>
     </row>
     <row r="496" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B496" s="12"/>
-      <c r="C496" s="13"/>
-      <c r="K496" s="12"/>
-      <c r="L496" s="12"/>
+      <c r="B496" s="11"/>
+      <c r="C496" s="11"/>
+      <c r="K496" s="11"/>
+      <c r="L496" s="11"/>
     </row>
     <row r="497" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B497" s="12"/>
-      <c r="C497" s="13"/>
-      <c r="K497" s="12"/>
-      <c r="L497" s="12"/>
+      <c r="B497" s="11"/>
+      <c r="C497" s="11"/>
+      <c r="K497" s="11"/>
+      <c r="L497" s="11"/>
     </row>
     <row r="498" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B498" s="12"/>
-      <c r="C498" s="13"/>
-      <c r="K498" s="12"/>
-      <c r="L498" s="12"/>
+      <c r="B498" s="11"/>
+      <c r="C498" s="11"/>
+      <c r="K498" s="11"/>
+      <c r="L498" s="11"/>
     </row>
     <row r="499" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B499" s="12"/>
-      <c r="C499" s="13"/>
-      <c r="K499" s="12"/>
-      <c r="L499" s="12"/>
+      <c r="B499" s="11"/>
+      <c r="C499" s="11"/>
+      <c r="K499" s="11"/>
+      <c r="L499" s="11"/>
     </row>
     <row r="500" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B500" s="12"/>
-      <c r="C500" s="13"/>
-      <c r="K500" s="12"/>
-      <c r="L500" s="12"/>
+      <c r="B500" s="11"/>
+      <c r="C500" s="11"/>
+      <c r="K500" s="11"/>
+      <c r="L500" s="11"/>
     </row>
     <row r="501" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B501" s="12"/>
-      <c r="C501" s="13"/>
-      <c r="K501" s="12"/>
-      <c r="L501" s="12"/>
+      <c r="B501" s="11"/>
+      <c r="C501" s="11"/>
+      <c r="K501" s="11"/>
+      <c r="L501" s="11"/>
     </row>
     <row r="502" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B502" s="12"/>
-      <c r="C502" s="13"/>
-      <c r="K502" s="12"/>
-      <c r="L502" s="12"/>
+      <c r="B502" s="11"/>
+      <c r="C502" s="11"/>
+      <c r="K502" s="11"/>
+      <c r="L502" s="11"/>
     </row>
     <row r="503" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B503" s="12"/>
-      <c r="C503" s="13"/>
-      <c r="K503" s="12"/>
-      <c r="L503" s="12"/>
+      <c r="B503" s="11"/>
+      <c r="C503" s="11"/>
+      <c r="K503" s="11"/>
+      <c r="L503" s="11"/>
     </row>
     <row r="504" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B504" s="12"/>
-      <c r="C504" s="13"/>
-      <c r="K504" s="12"/>
-      <c r="L504" s="12"/>
+      <c r="B504" s="11"/>
+      <c r="C504" s="11"/>
+      <c r="K504" s="11"/>
+      <c r="L504" s="11"/>
     </row>
     <row r="505" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B505" s="12"/>
-      <c r="C505" s="13"/>
-      <c r="K505" s="12"/>
-      <c r="L505" s="12"/>
+      <c r="B505" s="11"/>
+      <c r="C505" s="11"/>
+      <c r="K505" s="11"/>
+      <c r="L505" s="11"/>
     </row>
     <row r="506" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B506" s="12"/>
-      <c r="C506" s="13"/>
-      <c r="K506" s="12"/>
-      <c r="L506" s="12"/>
+      <c r="B506" s="11"/>
+      <c r="C506" s="11"/>
+      <c r="K506" s="11"/>
+      <c r="L506" s="11"/>
     </row>
     <row r="507" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B507" s="12"/>
-      <c r="C507" s="13"/>
-      <c r="K507" s="12"/>
-      <c r="L507" s="12"/>
+      <c r="B507" s="11"/>
+      <c r="C507" s="11"/>
+      <c r="K507" s="11"/>
+      <c r="L507" s="11"/>
     </row>
     <row r="508" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B508" s="12"/>
-      <c r="C508" s="13"/>
-      <c r="K508" s="12"/>
-      <c r="L508" s="12"/>
+      <c r="B508" s="11"/>
+      <c r="C508" s="11"/>
+      <c r="K508" s="11"/>
+      <c r="L508" s="11"/>
     </row>
     <row r="509" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B509" s="12"/>
-      <c r="C509" s="13"/>
-      <c r="K509" s="12"/>
-      <c r="L509" s="12"/>
+      <c r="B509" s="11"/>
+      <c r="C509" s="11"/>
+      <c r="K509" s="11"/>
+      <c r="L509" s="11"/>
     </row>
     <row r="510" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B510" s="12"/>
-      <c r="C510" s="13"/>
-      <c r="K510" s="12"/>
-      <c r="L510" s="12"/>
+      <c r="B510" s="11"/>
+      <c r="C510" s="11"/>
+      <c r="K510" s="11"/>
+      <c r="L510" s="11"/>
     </row>
     <row r="511" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B511" s="12"/>
-      <c r="C511" s="13"/>
-      <c r="K511" s="12"/>
-      <c r="L511" s="12"/>
+      <c r="B511" s="11"/>
+      <c r="C511" s="11"/>
+      <c r="K511" s="11"/>
+      <c r="L511" s="11"/>
     </row>
     <row r="512" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B512" s="12"/>
-      <c r="C512" s="13"/>
-      <c r="K512" s="12"/>
-      <c r="L512" s="12"/>
+      <c r="B512" s="11"/>
+      <c r="C512" s="11"/>
+      <c r="K512" s="11"/>
+      <c r="L512" s="11"/>
     </row>
     <row r="513" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B513" s="12"/>
-      <c r="C513" s="13"/>
-      <c r="K513" s="12"/>
-      <c r="L513" s="12"/>
+      <c r="B513" s="11"/>
+      <c r="C513" s="11"/>
+      <c r="K513" s="11"/>
+      <c r="L513" s="11"/>
     </row>
     <row r="514" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B514" s="12"/>
-      <c r="C514" s="13"/>
-      <c r="K514" s="12"/>
-      <c r="L514" s="12"/>
+      <c r="B514" s="11"/>
+      <c r="C514" s="11"/>
+      <c r="K514" s="11"/>
+      <c r="L514" s="11"/>
     </row>
     <row r="515" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B515" s="12"/>
-      <c r="C515" s="13"/>
-      <c r="K515" s="12"/>
-      <c r="L515" s="12"/>
+      <c r="B515" s="11"/>
+      <c r="C515" s="11"/>
+      <c r="K515" s="11"/>
+      <c r="L515" s="11"/>
     </row>
     <row r="516" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B516" s="12"/>
-      <c r="C516" s="13"/>
-      <c r="K516" s="12"/>
-      <c r="L516" s="12"/>
+      <c r="B516" s="11"/>
+      <c r="C516" s="11"/>
+      <c r="K516" s="11"/>
+      <c r="L516" s="11"/>
     </row>
     <row r="517" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B517" s="12"/>
-      <c r="C517" s="13"/>
-      <c r="K517" s="12"/>
-      <c r="L517" s="12"/>
+      <c r="B517" s="11"/>
+      <c r="C517" s="11"/>
+      <c r="K517" s="11"/>
+      <c r="L517" s="11"/>
     </row>
     <row r="518" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B518" s="12"/>
-      <c r="C518" s="13"/>
-      <c r="K518" s="12"/>
-      <c r="L518" s="12"/>
+      <c r="B518" s="11"/>
+      <c r="C518" s="11"/>
+      <c r="K518" s="11"/>
+      <c r="L518" s="11"/>
     </row>
     <row r="519" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B519" s="12"/>
-      <c r="C519" s="13"/>
-      <c r="K519" s="12"/>
-      <c r="L519" s="12"/>
+      <c r="B519" s="11"/>
+      <c r="C519" s="11"/>
+      <c r="K519" s="11"/>
+      <c r="L519" s="11"/>
     </row>
     <row r="520" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B520" s="12"/>
-      <c r="C520" s="13"/>
-      <c r="K520" s="12"/>
-      <c r="L520" s="12"/>
+      <c r="B520" s="11"/>
+      <c r="C520" s="11"/>
+      <c r="K520" s="11"/>
+      <c r="L520" s="11"/>
     </row>
     <row r="521" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B521" s="12"/>
-      <c r="C521" s="13"/>
-      <c r="K521" s="12"/>
-      <c r="L521" s="12"/>
+      <c r="B521" s="11"/>
+      <c r="C521" s="11"/>
+      <c r="K521" s="11"/>
+      <c r="L521" s="11"/>
     </row>
     <row r="522" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B522" s="12"/>
-      <c r="C522" s="13"/>
-      <c r="K522" s="12"/>
-      <c r="L522" s="12"/>
+      <c r="B522" s="11"/>
+      <c r="C522" s="11"/>
+      <c r="K522" s="11"/>
+      <c r="L522" s="11"/>
     </row>
     <row r="523" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B523" s="12"/>
-      <c r="C523" s="13"/>
-      <c r="K523" s="12"/>
-      <c r="L523" s="12"/>
+      <c r="B523" s="11"/>
+      <c r="C523" s="11"/>
+      <c r="K523" s="11"/>
+      <c r="L523" s="11"/>
     </row>
     <row r="524" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B524" s="12"/>
-      <c r="C524" s="13"/>
-      <c r="K524" s="12"/>
-      <c r="L524" s="12"/>
+      <c r="B524" s="11"/>
+      <c r="C524" s="11"/>
+      <c r="K524" s="11"/>
+      <c r="L524" s="11"/>
     </row>
     <row r="525" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B525" s="12"/>
-      <c r="C525" s="13"/>
-      <c r="K525" s="12"/>
-      <c r="L525" s="12"/>
+      <c r="B525" s="11"/>
+      <c r="C525" s="11"/>
+      <c r="K525" s="11"/>
+      <c r="L525" s="11"/>
     </row>
     <row r="526" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B526" s="12"/>
-      <c r="C526" s="13"/>
-      <c r="K526" s="12"/>
-      <c r="L526" s="12"/>
+      <c r="B526" s="11"/>
+      <c r="C526" s="11"/>
+      <c r="K526" s="11"/>
+      <c r="L526" s="11"/>
     </row>
     <row r="527" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B527" s="12"/>
-      <c r="C527" s="13"/>
-      <c r="K527" s="12"/>
-      <c r="L527" s="12"/>
+      <c r="B527" s="11"/>
+      <c r="C527" s="11"/>
+      <c r="K527" s="11"/>
+      <c r="L527" s="11"/>
     </row>
     <row r="528" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B528" s="12"/>
-      <c r="C528" s="13"/>
-      <c r="K528" s="12"/>
-      <c r="L528" s="12"/>
+      <c r="B528" s="11"/>
+      <c r="C528" s="11"/>
+      <c r="K528" s="11"/>
+      <c r="L528" s="11"/>
     </row>
     <row r="529" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B529" s="12"/>
-      <c r="C529" s="13"/>
-      <c r="K529" s="12"/>
-      <c r="L529" s="12"/>
+      <c r="B529" s="11"/>
+      <c r="C529" s="11"/>
+      <c r="K529" s="11"/>
+      <c r="L529" s="11"/>
     </row>
     <row r="530" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B530" s="12"/>
-      <c r="C530" s="13"/>
-      <c r="K530" s="12"/>
-      <c r="L530" s="12"/>
+      <c r="B530" s="11"/>
+      <c r="C530" s="11"/>
+      <c r="K530" s="11"/>
+      <c r="L530" s="11"/>
     </row>
     <row r="531" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B531" s="12"/>
-      <c r="C531" s="13"/>
-      <c r="K531" s="12"/>
-      <c r="L531" s="12"/>
+      <c r="B531" s="11"/>
+      <c r="C531" s="11"/>
+      <c r="K531" s="11"/>
+      <c r="L531" s="11"/>
     </row>
     <row r="532" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B532" s="12"/>
-      <c r="C532" s="13"/>
-      <c r="K532" s="12"/>
-      <c r="L532" s="12"/>
+      <c r="B532" s="11"/>
+      <c r="C532" s="11"/>
+      <c r="K532" s="11"/>
+      <c r="L532" s="11"/>
     </row>
     <row r="533" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B533" s="12"/>
-      <c r="C533" s="13"/>
-      <c r="K533" s="12"/>
-      <c r="L533" s="12"/>
+      <c r="B533" s="11"/>
+      <c r="C533" s="11"/>
+      <c r="K533" s="11"/>
+      <c r="L533" s="11"/>
     </row>
     <row r="534" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B534" s="12"/>
-      <c r="C534" s="13"/>
-      <c r="K534" s="12"/>
-      <c r="L534" s="12"/>
+      <c r="B534" s="11"/>
+      <c r="C534" s="11"/>
+      <c r="K534" s="11"/>
+      <c r="L534" s="11"/>
     </row>
     <row r="535" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B535" s="12"/>
-      <c r="C535" s="13"/>
-      <c r="K535" s="12"/>
-      <c r="L535" s="12"/>
+      <c r="B535" s="11"/>
+      <c r="C535" s="11"/>
+      <c r="K535" s="11"/>
+      <c r="L535" s="11"/>
     </row>
     <row r="536" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B536" s="12"/>
-      <c r="C536" s="13"/>
-      <c r="K536" s="12"/>
-      <c r="L536" s="12"/>
+      <c r="B536" s="11"/>
+      <c r="C536" s="11"/>
+      <c r="K536" s="11"/>
+      <c r="L536" s="11"/>
     </row>
     <row r="537" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B537" s="12"/>
-      <c r="C537" s="13"/>
-      <c r="K537" s="12"/>
-      <c r="L537" s="12"/>
+      <c r="B537" s="11"/>
+      <c r="C537" s="11"/>
+      <c r="K537" s="11"/>
+      <c r="L537" s="11"/>
     </row>
     <row r="538" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B538" s="12"/>
-      <c r="C538" s="13"/>
-      <c r="K538" s="12"/>
-      <c r="L538" s="12"/>
+      <c r="B538" s="11"/>
+      <c r="C538" s="11"/>
+      <c r="K538" s="11"/>
+      <c r="L538" s="11"/>
     </row>
     <row r="539" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B539" s="12"/>
-      <c r="C539" s="13"/>
-      <c r="K539" s="12"/>
-      <c r="L539" s="12"/>
+      <c r="B539" s="11"/>
+      <c r="C539" s="11"/>
+      <c r="K539" s="11"/>
+      <c r="L539" s="11"/>
     </row>
     <row r="540" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B540" s="12"/>
-      <c r="C540" s="13"/>
-      <c r="K540" s="12"/>
-      <c r="L540" s="12"/>
+      <c r="B540" s="11"/>
+      <c r="C540" s="11"/>
+      <c r="K540" s="11"/>
+      <c r="L540" s="11"/>
     </row>
     <row r="541" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B541" s="12"/>
-      <c r="C541" s="13"/>
-      <c r="K541" s="12"/>
-      <c r="L541" s="12"/>
+      <c r="B541" s="11"/>
+      <c r="C541" s="11"/>
+      <c r="K541" s="11"/>
+      <c r="L541" s="11"/>
     </row>
     <row r="542" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B542" s="12"/>
-      <c r="C542" s="13"/>
-      <c r="K542" s="12"/>
-      <c r="L542" s="12"/>
+      <c r="B542" s="11"/>
+      <c r="C542" s="11"/>
+      <c r="K542" s="11"/>
+      <c r="L542" s="11"/>
     </row>
     <row r="543" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B543" s="12"/>
-      <c r="C543" s="13"/>
-      <c r="K543" s="12"/>
-      <c r="L543" s="12"/>
+      <c r="B543" s="11"/>
+      <c r="C543" s="11"/>
+      <c r="K543" s="11"/>
+      <c r="L543" s="11"/>
     </row>
     <row r="544" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B544" s="12"/>
-      <c r="C544" s="13"/>
-      <c r="K544" s="12"/>
-      <c r="L544" s="12"/>
+      <c r="B544" s="11"/>
+      <c r="C544" s="11"/>
+      <c r="K544" s="11"/>
+      <c r="L544" s="11"/>
     </row>
     <row r="545" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B545" s="12"/>
-      <c r="C545" s="13"/>
-      <c r="K545" s="12"/>
-      <c r="L545" s="12"/>
+      <c r="B545" s="11"/>
+      <c r="C545" s="11"/>
+      <c r="K545" s="11"/>
+      <c r="L545" s="11"/>
     </row>
     <row r="546" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B546" s="12"/>
-      <c r="C546" s="13"/>
-      <c r="K546" s="12"/>
-      <c r="L546" s="12"/>
+      <c r="B546" s="11"/>
+      <c r="C546" s="11"/>
+      <c r="K546" s="11"/>
+      <c r="L546" s="11"/>
     </row>
     <row r="547" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B547" s="12"/>
-      <c r="C547" s="13"/>
-      <c r="K547" s="12"/>
-      <c r="L547" s="12"/>
+      <c r="B547" s="11"/>
+      <c r="C547" s="11"/>
+      <c r="K547" s="11"/>
+      <c r="L547" s="11"/>
     </row>
     <row r="548" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B548" s="12"/>
-      <c r="C548" s="13"/>
-      <c r="K548" s="12"/>
-      <c r="L548" s="12"/>
+      <c r="B548" s="11"/>
+      <c r="C548" s="11"/>
+      <c r="K548" s="11"/>
+      <c r="L548" s="11"/>
     </row>
     <row r="549" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B549" s="12"/>
-      <c r="C549" s="13"/>
-      <c r="K549" s="12"/>
-      <c r="L549" s="12"/>
+      <c r="B549" s="11"/>
+      <c r="C549" s="11"/>
+      <c r="K549" s="11"/>
+      <c r="L549" s="11"/>
     </row>
     <row r="550" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B550" s="12"/>
-      <c r="C550" s="13"/>
-      <c r="K550" s="12"/>
-      <c r="L550" s="12"/>
+      <c r="B550" s="11"/>
+      <c r="C550" s="11"/>
+      <c r="K550" s="11"/>
+      <c r="L550" s="11"/>
     </row>
     <row r="551" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B551" s="12"/>
-      <c r="C551" s="13"/>
-      <c r="K551" s="12"/>
-      <c r="L551" s="12"/>
+      <c r="B551" s="11"/>
+      <c r="C551" s="11"/>
+      <c r="K551" s="11"/>
+      <c r="L551" s="11"/>
     </row>
     <row r="552" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B552" s="12"/>
-      <c r="C552" s="13"/>
-      <c r="K552" s="12"/>
-      <c r="L552" s="12"/>
+      <c r="B552" s="11"/>
+      <c r="C552" s="11"/>
+      <c r="K552" s="11"/>
+      <c r="L552" s="11"/>
     </row>
     <row r="553" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B553" s="12"/>
-      <c r="C553" s="13"/>
-      <c r="K553" s="12"/>
-      <c r="L553" s="12"/>
+      <c r="B553" s="11"/>
+      <c r="C553" s="11"/>
+      <c r="K553" s="11"/>
+      <c r="L553" s="11"/>
     </row>
     <row r="554" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B554" s="12"/>
-      <c r="C554" s="13"/>
-      <c r="K554" s="12"/>
-      <c r="L554" s="12"/>
+      <c r="B554" s="11"/>
+      <c r="C554" s="11"/>
+      <c r="K554" s="11"/>
+      <c r="L554" s="11"/>
     </row>
     <row r="555" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B555" s="12"/>
-      <c r="C555" s="13"/>
-      <c r="K555" s="12"/>
-      <c r="L555" s="12"/>
+      <c r="B555" s="11"/>
+      <c r="C555" s="11"/>
+      <c r="K555" s="11"/>
+      <c r="L555" s="11"/>
     </row>
     <row r="556" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B556" s="12"/>
-      <c r="C556" s="13"/>
-      <c r="K556" s="12"/>
-      <c r="L556" s="12"/>
+      <c r="B556" s="11"/>
+      <c r="C556" s="11"/>
+      <c r="K556" s="11"/>
+      <c r="L556" s="11"/>
     </row>
     <row r="557" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B557" s="12"/>
-      <c r="C557" s="13"/>
-      <c r="K557" s="12"/>
-      <c r="L557" s="12"/>
+      <c r="B557" s="11"/>
+      <c r="C557" s="11"/>
+      <c r="K557" s="11"/>
+      <c r="L557" s="11"/>
     </row>
     <row r="558" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B558" s="12"/>
-      <c r="C558" s="13"/>
-      <c r="K558" s="12"/>
-      <c r="L558" s="12"/>
+      <c r="B558" s="11"/>
+      <c r="C558" s="11"/>
+      <c r="K558" s="11"/>
+      <c r="L558" s="11"/>
     </row>
     <row r="559" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B559" s="12"/>
-      <c r="C559" s="13"/>
-      <c r="K559" s="12"/>
-      <c r="L559" s="12"/>
+      <c r="B559" s="11"/>
+      <c r="C559" s="11"/>
+      <c r="K559" s="11"/>
+      <c r="L559" s="11"/>
     </row>
     <row r="560" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B560" s="12"/>
-      <c r="C560" s="13"/>
-      <c r="K560" s="12"/>
-      <c r="L560" s="12"/>
+      <c r="B560" s="11"/>
+      <c r="C560" s="11"/>
+      <c r="K560" s="11"/>
+      <c r="L560" s="11"/>
     </row>
     <row r="561" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B561" s="12"/>
-      <c r="C561" s="13"/>
-      <c r="K561" s="12"/>
-      <c r="L561" s="12"/>
+      <c r="B561" s="11"/>
+      <c r="C561" s="11"/>
+      <c r="K561" s="11"/>
+      <c r="L561" s="11"/>
     </row>
     <row r="562" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B562" s="12"/>
-      <c r="C562" s="13"/>
-      <c r="K562" s="12"/>
-      <c r="L562" s="12"/>
+      <c r="B562" s="11"/>
+      <c r="C562" s="11"/>
+      <c r="K562" s="11"/>
+      <c r="L562" s="11"/>
     </row>
     <row r="563" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B563" s="12"/>
-      <c r="C563" s="13"/>
-      <c r="K563" s="12"/>
-      <c r="L563" s="12"/>
+      <c r="B563" s="11"/>
+      <c r="C563" s="11"/>
+      <c r="K563" s="11"/>
+      <c r="L563" s="11"/>
     </row>
     <row r="564" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B564" s="12"/>
-      <c r="C564" s="13"/>
-      <c r="K564" s="12"/>
-      <c r="L564" s="12"/>
+      <c r="B564" s="11"/>
+      <c r="C564" s="11"/>
+      <c r="K564" s="11"/>
+      <c r="L564" s="11"/>
     </row>
     <row r="565" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B565" s="12"/>
-      <c r="C565" s="13"/>
-      <c r="K565" s="12"/>
-      <c r="L565" s="12"/>
+      <c r="B565" s="11"/>
+      <c r="C565" s="11"/>
+      <c r="K565" s="11"/>
+      <c r="L565" s="11"/>
     </row>
     <row r="566" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B566" s="12"/>
-      <c r="C566" s="13"/>
-      <c r="K566" s="12"/>
-      <c r="L566" s="12"/>
+      <c r="B566" s="11"/>
+      <c r="C566" s="11"/>
+      <c r="K566" s="11"/>
+      <c r="L566" s="11"/>
     </row>
     <row r="567" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B567" s="12"/>
-      <c r="C567" s="13"/>
-      <c r="K567" s="12"/>
-      <c r="L567" s="12"/>
+      <c r="B567" s="11"/>
+      <c r="C567" s="11"/>
+      <c r="K567" s="11"/>
+      <c r="L567" s="11"/>
     </row>
     <row r="568" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B568" s="12"/>
-      <c r="C568" s="13"/>
-      <c r="K568" s="12"/>
-      <c r="L568" s="12"/>
+      <c r="B568" s="11"/>
+      <c r="C568" s="11"/>
+      <c r="K568" s="11"/>
+      <c r="L568" s="11"/>
     </row>
     <row r="569" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B569" s="12"/>
-      <c r="C569" s="13"/>
-      <c r="K569" s="12"/>
-      <c r="L569" s="12"/>
+      <c r="B569" s="11"/>
+      <c r="C569" s="11"/>
+      <c r="K569" s="11"/>
+      <c r="L569" s="11"/>
     </row>
     <row r="570" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B570" s="12"/>
-      <c r="C570" s="13"/>
-      <c r="K570" s="12"/>
-      <c r="L570" s="12"/>
+      <c r="B570" s="11"/>
+      <c r="C570" s="11"/>
+      <c r="K570" s="11"/>
+      <c r="L570" s="11"/>
     </row>
     <row r="571" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B571" s="12"/>
-      <c r="C571" s="13"/>
-      <c r="K571" s="12"/>
-      <c r="L571" s="12"/>
+      <c r="B571" s="11"/>
+      <c r="C571" s="11"/>
+      <c r="K571" s="11"/>
+      <c r="L571" s="11"/>
     </row>
     <row r="572" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B572" s="12"/>
-      <c r="C572" s="13"/>
-      <c r="K572" s="12"/>
-      <c r="L572" s="12"/>
+      <c r="B572" s="11"/>
+      <c r="C572" s="11"/>
+      <c r="K572" s="11"/>
+      <c r="L572" s="11"/>
     </row>
     <row r="573" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B573" s="12"/>
-      <c r="C573" s="13"/>
-      <c r="K573" s="12"/>
-      <c r="L573" s="12"/>
+      <c r="B573" s="11"/>
+      <c r="C573" s="11"/>
+      <c r="K573" s="11"/>
+      <c r="L573" s="11"/>
     </row>
     <row r="574" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B574" s="12"/>
-      <c r="C574" s="13"/>
-      <c r="K574" s="12"/>
-      <c r="L574" s="12"/>
+      <c r="B574" s="11"/>
+      <c r="C574" s="11"/>
+      <c r="K574" s="11"/>
+      <c r="L574" s="11"/>
     </row>
     <row r="575" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B575" s="12"/>
-      <c r="C575" s="13"/>
-      <c r="K575" s="12"/>
-      <c r="L575" s="12"/>
+      <c r="B575" s="11"/>
+      <c r="C575" s="11"/>
+      <c r="K575" s="11"/>
+      <c r="L575" s="11"/>
     </row>
     <row r="576" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B576" s="12"/>
-      <c r="C576" s="13"/>
-      <c r="K576" s="12"/>
-      <c r="L576" s="12"/>
+      <c r="B576" s="11"/>
+      <c r="C576" s="11"/>
+      <c r="K576" s="11"/>
+      <c r="L576" s="11"/>
     </row>
     <row r="577" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B577" s="12"/>
-      <c r="C577" s="13"/>
-      <c r="K577" s="12"/>
-      <c r="L577" s="12"/>
+      <c r="B577" s="11"/>
+      <c r="C577" s="11"/>
+      <c r="K577" s="11"/>
+      <c r="L577" s="11"/>
     </row>
     <row r="578" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B578" s="12"/>
-      <c r="C578" s="13"/>
-      <c r="K578" s="12"/>
-      <c r="L578" s="12"/>
+      <c r="B578" s="11"/>
+      <c r="C578" s="11"/>
+      <c r="K578" s="11"/>
+      <c r="L578" s="11"/>
     </row>
     <row r="579" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B579" s="12"/>
-      <c r="C579" s="13"/>
-      <c r="K579" s="12"/>
-      <c r="L579" s="12"/>
+      <c r="B579" s="11"/>
+      <c r="C579" s="11"/>
+      <c r="K579" s="11"/>
+      <c r="L579" s="11"/>
     </row>
     <row r="580" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B580" s="12"/>
-      <c r="C580" s="13"/>
-      <c r="K580" s="12"/>
-      <c r="L580" s="12"/>
+      <c r="B580" s="11"/>
+      <c r="C580" s="11"/>
+      <c r="K580" s="11"/>
+      <c r="L580" s="11"/>
     </row>
     <row r="581" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B581" s="12"/>
-      <c r="C581" s="13"/>
-      <c r="K581" s="12"/>
-      <c r="L581" s="12"/>
+      <c r="B581" s="11"/>
+      <c r="C581" s="11"/>
+      <c r="K581" s="11"/>
+      <c r="L581" s="11"/>
     </row>
     <row r="582" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B582" s="12"/>
-      <c r="C582" s="13"/>
-      <c r="K582" s="12"/>
-      <c r="L582" s="12"/>
+      <c r="B582" s="11"/>
+      <c r="C582" s="11"/>
+      <c r="K582" s="11"/>
+      <c r="L582" s="11"/>
     </row>
     <row r="583" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B583" s="12"/>
-      <c r="C583" s="13"/>
-      <c r="K583" s="12"/>
-      <c r="L583" s="12"/>
+      <c r="B583" s="11"/>
+      <c r="C583" s="11"/>
+      <c r="K583" s="11"/>
+      <c r="L583" s="11"/>
     </row>
     <row r="584" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B584" s="12"/>
-      <c r="C584" s="13"/>
-      <c r="K584" s="12"/>
-      <c r="L584" s="12"/>
+      <c r="B584" s="11"/>
+      <c r="C584" s="11"/>
+      <c r="K584" s="11"/>
+      <c r="L584" s="11"/>
     </row>
     <row r="585" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B585" s="12"/>
-      <c r="C585" s="13"/>
-      <c r="K585" s="12"/>
-      <c r="L585" s="12"/>
+      <c r="B585" s="11"/>
+      <c r="C585" s="11"/>
+      <c r="K585" s="11"/>
+      <c r="L585" s="11"/>
     </row>
     <row r="586" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B586" s="12"/>
-      <c r="C586" s="13"/>
-      <c r="K586" s="12"/>
-      <c r="L586" s="12"/>
+      <c r="B586" s="11"/>
+      <c r="C586" s="11"/>
+      <c r="K586" s="11"/>
+      <c r="L586" s="11"/>
     </row>
     <row r="587" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B587" s="12"/>
-      <c r="C587" s="13"/>
-      <c r="K587" s="12"/>
-      <c r="L587" s="12"/>
+      <c r="B587" s="11"/>
+      <c r="C587" s="11"/>
+      <c r="K587" s="11"/>
+      <c r="L587" s="11"/>
     </row>
     <row r="588" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B588" s="12"/>
-      <c r="C588" s="13"/>
-      <c r="K588" s="12"/>
-      <c r="L588" s="12"/>
+      <c r="B588" s="11"/>
+      <c r="C588" s="11"/>
+      <c r="K588" s="11"/>
+      <c r="L588" s="11"/>
     </row>
     <row r="589" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B589" s="12"/>
-      <c r="C589" s="13"/>
-      <c r="K589" s="12"/>
-      <c r="L589" s="12"/>
+      <c r="B589" s="11"/>
+      <c r="C589" s="11"/>
+      <c r="K589" s="11"/>
+      <c r="L589" s="11"/>
     </row>
     <row r="590" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B590" s="12"/>
-      <c r="C590" s="13"/>
-      <c r="K590" s="12"/>
-      <c r="L590" s="12"/>
+      <c r="B590" s="11"/>
+      <c r="C590" s="11"/>
+      <c r="K590" s="11"/>
+      <c r="L590" s="11"/>
     </row>
     <row r="591" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B591" s="12"/>
-      <c r="C591" s="13"/>
-      <c r="K591" s="12"/>
-      <c r="L591" s="12"/>
+      <c r="B591" s="11"/>
+      <c r="C591" s="11"/>
+      <c r="K591" s="11"/>
+      <c r="L591" s="11"/>
     </row>
     <row r="592" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B592" s="12"/>
-      <c r="C592" s="13"/>
-      <c r="K592" s="12"/>
-      <c r="L592" s="12"/>
+      <c r="B592" s="11"/>
+      <c r="C592" s="11"/>
+      <c r="K592" s="11"/>
+      <c r="L592" s="11"/>
     </row>
     <row r="593" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B593" s="12"/>
-      <c r="C593" s="13"/>
-      <c r="K593" s="12"/>
-      <c r="L593" s="12"/>
+      <c r="B593" s="11"/>
+      <c r="C593" s="11"/>
+      <c r="K593" s="11"/>
+      <c r="L593" s="11"/>
     </row>
     <row r="594" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B594" s="12"/>
-      <c r="C594" s="13"/>
-      <c r="K594" s="12"/>
-      <c r="L594" s="12"/>
+      <c r="B594" s="11"/>
+      <c r="C594" s="11"/>
+      <c r="K594" s="11"/>
+      <c r="L594" s="11"/>
     </row>
     <row r="595" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B595" s="12"/>
-      <c r="C595" s="13"/>
-      <c r="K595" s="12"/>
-      <c r="L595" s="12"/>
+      <c r="B595" s="11"/>
+      <c r="C595" s="11"/>
+      <c r="K595" s="11"/>
+      <c r="L595" s="11"/>
     </row>
     <row r="596" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B596" s="12"/>
-      <c r="C596" s="13"/>
-      <c r="K596" s="12"/>
-      <c r="L596" s="12"/>
+      <c r="B596" s="11"/>
+      <c r="C596" s="11"/>
+      <c r="K596" s="11"/>
+      <c r="L596" s="11"/>
     </row>
     <row r="597" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B597" s="12"/>
-      <c r="C597" s="13"/>
-      <c r="K597" s="12"/>
-      <c r="L597" s="12"/>
+      <c r="B597" s="11"/>
+      <c r="C597" s="11"/>
+      <c r="K597" s="11"/>
+      <c r="L597" s="11"/>
     </row>
     <row r="598" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B598" s="12"/>
-      <c r="C598" s="13"/>
-      <c r="K598" s="12"/>
-      <c r="L598" s="12"/>
+      <c r="B598" s="11"/>
+      <c r="C598" s="11"/>
+      <c r="K598" s="11"/>
+      <c r="L598" s="11"/>
     </row>
     <row r="599" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B599" s="12"/>
-      <c r="C599" s="13"/>
-      <c r="K599" s="12"/>
-      <c r="L599" s="12"/>
+      <c r="B599" s="11"/>
+      <c r="C599" s="11"/>
+      <c r="K599" s="11"/>
+      <c r="L599" s="11"/>
     </row>
     <row r="600" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B600" s="12"/>
-      <c r="C600" s="13"/>
-      <c r="K600" s="12"/>
-      <c r="L600" s="12"/>
+      <c r="B600" s="11"/>
+      <c r="C600" s="11"/>
+      <c r="K600" s="11"/>
+      <c r="L600" s="11"/>
     </row>
     <row r="601" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B601" s="12"/>
-      <c r="C601" s="13"/>
-      <c r="K601" s="12"/>
-      <c r="L601" s="12"/>
+      <c r="B601" s="11"/>
+      <c r="C601" s="11"/>
+      <c r="K601" s="11"/>
+      <c r="L601" s="11"/>
     </row>
     <row r="602" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B602" s="12"/>
-      <c r="C602" s="13"/>
-      <c r="K602" s="12"/>
-      <c r="L602" s="12"/>
-    </row>
-    <row r="603" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B603" s="12"/>
-      <c r="C603" s="13"/>
-      <c r="K603" s="12"/>
-      <c r="L603" s="12"/>
-    </row>
-    <row r="604" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B604" s="12"/>
-      <c r="C604" s="13"/>
-      <c r="K604" s="12"/>
-      <c r="L604" s="12"/>
-    </row>
-    <row r="605" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B605" s="12"/>
-      <c r="C605" s="13"/>
-      <c r="K605" s="12"/>
-      <c r="L605" s="12"/>
-    </row>
-    <row r="606" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B606" s="12"/>
-      <c r="C606" s="13"/>
-      <c r="K606" s="12"/>
-      <c r="L606" s="12"/>
-    </row>
-    <row r="607" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B607" s="12"/>
-      <c r="C607" s="13"/>
-      <c r="K607" s="12"/>
-      <c r="L607" s="12"/>
-    </row>
-    <row r="608" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B608" s="12"/>
-      <c r="C608" s="13"/>
-      <c r="K608" s="12"/>
-      <c r="L608" s="12"/>
-    </row>
-    <row r="609" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B609" s="12"/>
-      <c r="C609" s="13"/>
-      <c r="K609" s="12"/>
-      <c r="L609" s="12"/>
+      <c r="B602" s="11"/>
+      <c r="C602" s="11"/>
+      <c r="K602" s="11"/>
+      <c r="L602" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
